--- a/Data/Edmonds.xlsx
+++ b/Data/Edmonds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Times are in milliseconds</t>
   </si>
@@ -65,7 +65,28 @@
     <t>V = 100,000</t>
   </si>
   <si>
-    <t>Note: Graphs of the same size generated with different random seeds seem to perform quite differently, however the relative performance seems similar. Still need to do further testing, however</t>
+    <t>Only considering second phase</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Number of pop's &amp; SCC's</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>V = 100,000, E =</t>
+  </si>
+  <si>
+    <t>6,000,000 pushes in 100,000 heaps followed by 110,000 pops</t>
   </si>
 </sst>
 </file>
@@ -117,6 +138,4021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1367.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2540.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2661.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1953.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3520.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3957.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1394.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2723.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2868.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1388.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2751.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2814.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quake</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1247.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2806.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5240.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5708.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4032.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4178.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>849.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1854.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3274.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3776.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1734.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3220.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3522.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strict Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1628.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3789.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7321.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1892.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3818.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2134210176"/>
+        <c:axId val="2135026736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2134210176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135026736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135026736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134210176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>618.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1367.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2540.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2661.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1953.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3520.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3957.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1394.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2723.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2868.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1388.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2751.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2814.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2055.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4032.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4178.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>849.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1854.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3274.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3776.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1734.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3220.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3522.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>851.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1892.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3818.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2137669440"/>
+        <c:axId val="2137672800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2137669440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137672800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2137672800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137669440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,26 +4418,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -435,391 +4469,365 @@
       <c r="K2" s="1">
         <v>8000000</v>
       </c>
-      <c r="L2" s="1">
-        <v>8000000</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="I3">
-        <v>133</v>
+        <v>1367</v>
       </c>
       <c r="J3">
-        <v>164</v>
+        <v>2540</v>
       </c>
       <c r="K3">
-        <v>245</v>
-      </c>
-      <c r="L3">
-        <v>143</v>
+        <v>2661</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="H4">
-        <v>224</v>
+        <v>886</v>
       </c>
       <c r="I4">
-        <v>483</v>
+        <v>1953</v>
       </c>
       <c r="J4">
-        <v>740</v>
+        <v>3520</v>
       </c>
       <c r="K4">
-        <v>1037</v>
-      </c>
-      <c r="L4">
-        <v>937</v>
+        <v>3957</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="H5">
-        <v>135</v>
+        <v>637</v>
       </c>
       <c r="I5">
-        <v>279</v>
+        <v>1394</v>
       </c>
       <c r="J5">
-        <v>425</v>
+        <v>2723</v>
       </c>
       <c r="K5">
-        <v>616</v>
-      </c>
-      <c r="L5">
-        <v>509</v>
+        <v>2868</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="H6">
-        <v>125</v>
+        <v>630</v>
       </c>
       <c r="I6">
-        <v>255</v>
+        <v>1388</v>
       </c>
       <c r="J6">
-        <v>384</v>
+        <v>2751</v>
       </c>
       <c r="K6">
-        <v>593</v>
-      </c>
-      <c r="L6">
-        <v>462</v>
+        <v>2814</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="E7">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="F7">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="G7">
-        <v>197</v>
+        <v>755</v>
       </c>
       <c r="H7">
-        <v>407</v>
+        <v>1247</v>
       </c>
       <c r="I7">
-        <v>879</v>
+        <v>2806</v>
       </c>
       <c r="J7">
-        <v>1379</v>
+        <v>5240</v>
       </c>
       <c r="K7">
-        <v>2026</v>
-      </c>
-      <c r="L7">
-        <v>1814</v>
+        <v>5708</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="F8">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="G8">
-        <v>120</v>
+        <v>566</v>
       </c>
       <c r="H8">
-        <v>229</v>
+        <v>853</v>
       </c>
       <c r="I8">
-        <v>553</v>
+        <v>2055</v>
       </c>
       <c r="J8">
-        <v>872</v>
+        <v>4032</v>
       </c>
       <c r="K8">
-        <v>1396</v>
-      </c>
-      <c r="L8">
-        <v>1028</v>
+        <v>4178</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="F9">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="G9">
-        <v>123</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>251</v>
+        <v>849</v>
       </c>
       <c r="I9">
-        <v>531</v>
+        <v>1854</v>
       </c>
       <c r="J9">
-        <v>805</v>
+        <v>3274</v>
       </c>
       <c r="K9">
-        <v>1128</v>
-      </c>
-      <c r="L9">
-        <v>1045</v>
+        <v>3776</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>477</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>784</v>
       </c>
       <c r="I10">
-        <v>310</v>
+        <v>1734</v>
       </c>
       <c r="J10">
-        <v>456</v>
+        <v>3220</v>
       </c>
       <c r="K10">
-        <v>686</v>
-      </c>
-      <c r="L10">
-        <v>555</v>
+        <v>3522</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="F11">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="G11">
-        <v>111</v>
+        <v>943</v>
       </c>
       <c r="H11">
-        <v>184</v>
+        <v>1628</v>
       </c>
       <c r="I11">
-        <v>240</v>
+        <v>3789</v>
       </c>
       <c r="J11">
-        <v>311</v>
+        <v>7321</v>
       </c>
       <c r="K11">
-        <v>497</v>
-      </c>
-      <c r="L11">
-        <v>264</v>
+        <v>8150</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E12">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="F12">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="G12">
-        <v>122</v>
+        <v>537</v>
       </c>
       <c r="H12">
-        <v>238</v>
+        <v>851</v>
       </c>
       <c r="I12">
-        <v>512</v>
+        <v>1892</v>
       </c>
       <c r="J12">
-        <v>786</v>
+        <v>3500</v>
       </c>
       <c r="K12">
-        <v>1121</v>
-      </c>
-      <c r="L12">
-        <v>1010</v>
+        <v>3818</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f>B2</f>
         <v>100000</v>
@@ -857,13 +4865,10 @@
         <v>6000000</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:L16" si="1">K2</f>
+        <f t="shared" ref="K16" si="1">K2</f>
         <v>8000000</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="1"/>
-        <v>8000000</v>
-      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
@@ -872,27 +4877,27 @@
       </c>
       <c r="B17" s="2">
         <f>B3/MIN(B$3:B$12)</f>
-        <v>1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:L17" si="2">C3/MIN(C$3:C$12)</f>
-        <v>1</v>
+        <f t="shared" ref="C17:K17" si="2">C3/MIN(C$3:C$12)</f>
+        <v>1.2727272727272727</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.1046511627906976</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0948275862068966</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0675675675675675</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0707070707070707</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
@@ -910,10 +4915,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
@@ -921,49 +4923,46 @@
         <v>Fibonacci</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" ref="B18:L26" si="4">B4/MIN(B$3:B$12)</f>
-        <v>1</v>
+        <f t="shared" ref="B18:K26" si="4">B4/MIN(B$3:B$12)</f>
+        <v>1.1785714285714286</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
-        <v>1.125</v>
+        <v>1.4181818181818182</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="4"/>
-        <v>1.2413793103448276</v>
+        <v>1.3372093023255813</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="4"/>
-        <v>1.2432432432432432</v>
+        <v>1.353448275862069</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <v>1.3445945945945945</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="4"/>
-        <v>1.8813559322033899</v>
+        <v>1.3409090909090908</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="4"/>
-        <v>2.8354430379746836</v>
+        <v>1.4336569579288025</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="4"/>
-        <v>3.6315789473684212</v>
+        <v>1.4286759326993417</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>4.5121951219512191</v>
+        <v>1.3858267716535433</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="4"/>
-        <v>4.2326530612244895</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5524475524475525</v>
-      </c>
+        <v>1.4870349492671928</v>
+      </c>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
@@ -972,48 +4971,45 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1071428571428572</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
-        <v>1.0833333333333333</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="4"/>
-        <v>1.1724137931034482</v>
+        <v>1.0930232558139534</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>1.1351351351351351</v>
+        <v>1.0689655172413792</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="4"/>
-        <v>1.1428571428571428</v>
+        <v>1.0405405405405406</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="4"/>
-        <v>1.3559322033898304</v>
+        <v>1.0126262626262625</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="4"/>
-        <v>1.7088607594936709</v>
+        <v>1.0307443365695792</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="4"/>
-        <v>2.0977443609022557</v>
+        <v>1.019751280175567</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="4"/>
-        <v>2.5914634146341462</v>
+        <v>1.0720472440944881</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="4"/>
-        <v>2.5142857142857142</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="4"/>
-        <v>3.5594405594405596</v>
-      </c>
+        <v>1.0777903043968433</v>
+      </c>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
@@ -1030,40 +5026,37 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="4"/>
-        <v>1.0344827586206897</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>1.0540540540540539</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="4"/>
-        <v>1.0714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="4"/>
-        <v>1.2372881355932204</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="4"/>
-        <v>1.5822784810126582</v>
+        <v>1.0194174757281553</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="4"/>
-        <v>1.9172932330827068</v>
+        <v>1.0153621068032188</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="4"/>
-        <v>2.3414634146341462</v>
+        <v>1.0830708661417323</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="4"/>
-        <v>2.4204081632653063</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="4"/>
-        <v>3.2307692307692308</v>
-      </c>
+        <v>1.0574971815107101</v>
+      </c>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
@@ -1072,48 +5065,45 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="4"/>
-        <v>1.4736842105263157</v>
+        <v>1.6428571428571428</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
-        <v>1.5416666666666667</v>
+        <v>1.7636363636363637</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="4"/>
-        <v>1.7586206896551724</v>
+        <v>1.7906976744186047</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
-        <v>1.972972972972973</v>
+        <v>1.8275862068965518</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="4"/>
-        <v>2.1904761904761907</v>
+        <v>1.8513513513513513</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="4"/>
-        <v>3.3389830508474576</v>
+        <v>1.9065656565656566</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="4"/>
-        <v>5.1518987341772151</v>
+        <v>2.0177993527508091</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="4"/>
-        <v>6.6090225563909772</v>
+        <v>2.0526700804681783</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="4"/>
-        <v>8.4085365853658534</v>
+        <v>2.0629921259842519</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="4"/>
-        <v>8.2693877551020414</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="4"/>
-        <v>12.685314685314685</v>
-      </c>
+        <v>2.1450582487786547</v>
+      </c>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
@@ -1122,48 +5112,45 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="4"/>
-        <v>1.0526315789473684</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
+        <v>1.3272727272727274</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="4"/>
-        <v>1.3793103448275863</v>
+        <v>1.3023255813953489</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="4"/>
-        <v>1.4054054054054055</v>
+        <v>1.3275862068965518</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
-        <v>1.4761904761904763</v>
+        <v>1.3378378378378379</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="4"/>
-        <v>2.0338983050847457</v>
+        <v>1.4292929292929293</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="4"/>
-        <v>2.8987341772151898</v>
+        <v>1.3802588996763754</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="4"/>
-        <v>4.1578947368421053</v>
+        <v>1.5032918800292612</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="4"/>
-        <v>5.3170731707317076</v>
+        <v>1.5874015748031496</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="4"/>
-        <v>5.6979591836734693</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1888111888111892</v>
-      </c>
+        <v>1.5700864336715521</v>
+      </c>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
@@ -1172,48 +5159,45 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.0357142857142858</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
-        <v>1.0416666666666667</v>
+        <v>1.2363636363636363</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="4"/>
-        <v>1.2068965517241379</v>
+        <v>1.2325581395348837</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="4"/>
-        <v>1.2702702702702702</v>
+        <v>1.2672413793103448</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>1.3809523809523809</v>
+        <v>1.277027027027027</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="4"/>
-        <v>2.0847457627118646</v>
+        <v>1.2626262626262625</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="4"/>
-        <v>3.1772151898734178</v>
+        <v>1.3737864077669903</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="4"/>
-        <v>3.992481203007519</v>
+        <v>1.3562545720555963</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="4"/>
-        <v>4.9085365853658534</v>
+        <v>1.2889763779527559</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="4"/>
-        <v>4.6040816326530614</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="4"/>
-        <v>7.3076923076923075</v>
-      </c>
+        <v>1.4190154077414505</v>
+      </c>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
@@ -1222,48 +5206,45 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.0357142857142858</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
-        <v>1.0416666666666667</v>
+        <v>1.1272727272727272</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="4"/>
-        <v>1.1379310344827587</v>
+        <v>1.1162790697674418</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="4"/>
-        <v>1.1351351351351351</v>
+        <v>1.1724137931034482</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>1.1428571428571428</v>
+        <v>1.1689189189189189</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="4"/>
-        <v>1.4406779661016949</v>
+        <v>1.2045454545454546</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="4"/>
-        <v>1.8987341772151898</v>
+        <v>1.2686084142394822</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="4"/>
-        <v>2.3308270676691731</v>
+        <v>1.2684711046086321</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="4"/>
-        <v>2.7804878048780486</v>
+        <v>1.2677165354330708</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
-        <v>2.8</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="4"/>
-        <v>3.8811188811188813</v>
-      </c>
+        <v>1.3235625704622322</v>
+      </c>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
@@ -1272,48 +5253,45 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="4"/>
-        <v>1.5263157894736843</v>
+        <v>2.0714285714285716</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>2.0363636363636362</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="4"/>
-        <v>1.7586206896551724</v>
+        <v>2.058139534883721</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
-        <v>1.7297297297297298</v>
+        <v>2.1982758620689653</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="4"/>
-        <v>1.7380952380952381</v>
+        <v>2.2027027027027026</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="4"/>
-        <v>1.8813559322033899</v>
+        <v>2.3813131313131315</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="4"/>
-        <v>2.3291139240506329</v>
+        <v>2.6343042071197411</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="4"/>
-        <v>1.8045112781954886</v>
+        <v>2.7717629846378933</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="4"/>
-        <v>1.8963414634146341</v>
+        <v>2.8822834645669291</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="4"/>
-        <v>2.0285714285714285</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8461538461538463</v>
-      </c>
+        <v>3.0627583615182261</v>
+      </c>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
@@ -1322,50 +5300,1286 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="4"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.290909090909091</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2906976744186047</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3448275862068966</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3243243243243243</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.356060606060606</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3770226537216828</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3840526700804683</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3779527559055118</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4347989477639984</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="C30" s="1">
+        <f>B30</f>
+        <v>8000000</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:E30" si="5">C30</f>
+        <v>8000000</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>8000000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30</f>
+        <v>4000000</v>
+      </c>
+      <c r="I30" s="1">
+        <f>H30</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>105966</v>
+      </c>
+      <c r="C31">
+        <v>100160</v>
+      </c>
+      <c r="D31">
+        <v>100860</v>
+      </c>
+      <c r="E31">
+        <v>105695</v>
+      </c>
+      <c r="G31">
+        <v>106511</v>
+      </c>
+      <c r="H31">
+        <v>100005</v>
+      </c>
+      <c r="I31">
+        <v>111050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>104736</v>
+      </c>
+      <c r="C32">
+        <v>100155</v>
+      </c>
+      <c r="D32">
+        <v>100801</v>
+      </c>
+      <c r="E32">
+        <v>104532</v>
+      </c>
+      <c r="G32">
+        <v>105099</v>
+      </c>
+      <c r="H32">
+        <v>100005</v>
+      </c>
+      <c r="I32">
+        <v>108010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="L43" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" si="4"/>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>59</v>
+      </c>
+      <c r="H44">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>133</v>
+      </c>
+      <c r="J44">
+        <v>164</v>
+      </c>
+      <c r="K44">
+        <v>245</v>
+      </c>
+      <c r="L44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>46</v>
+      </c>
+      <c r="F45">
+        <v>56</v>
+      </c>
+      <c r="G45">
+        <v>111</v>
+      </c>
+      <c r="H45">
+        <v>224</v>
+      </c>
+      <c r="I45">
+        <v>483</v>
+      </c>
+      <c r="J45">
+        <v>740</v>
+      </c>
+      <c r="K45">
+        <v>1037</v>
+      </c>
+      <c r="L45">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="F46">
+        <v>48</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <v>135</v>
+      </c>
+      <c r="I46">
+        <v>279</v>
+      </c>
+      <c r="J46">
+        <v>425</v>
+      </c>
+      <c r="K46">
+        <v>616</v>
+      </c>
+      <c r="L46">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>73</v>
+      </c>
+      <c r="H47">
+        <v>125</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>384</v>
+      </c>
+      <c r="K47">
+        <v>593</v>
+      </c>
+      <c r="L47">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>51</v>
+      </c>
+      <c r="E48">
+        <v>73</v>
+      </c>
+      <c r="F48">
+        <v>92</v>
+      </c>
+      <c r="G48">
+        <v>197</v>
+      </c>
+      <c r="H48">
+        <v>407</v>
+      </c>
+      <c r="I48">
+        <v>879</v>
+      </c>
+      <c r="J48">
+        <v>1379</v>
+      </c>
+      <c r="K48">
+        <v>2026</v>
+      </c>
+      <c r="L48">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>52</v>
+      </c>
+      <c r="F49">
+        <v>62</v>
+      </c>
+      <c r="G49">
+        <v>120</v>
+      </c>
+      <c r="H49">
+        <v>229</v>
+      </c>
+      <c r="I49">
+        <v>553</v>
+      </c>
+      <c r="J49">
+        <v>872</v>
+      </c>
+      <c r="K49">
+        <v>1396</v>
+      </c>
+      <c r="L49">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>58</v>
+      </c>
+      <c r="G50">
+        <v>123</v>
+      </c>
+      <c r="H50">
+        <v>251</v>
+      </c>
+      <c r="I50">
+        <v>531</v>
+      </c>
+      <c r="J50">
+        <v>805</v>
+      </c>
+      <c r="K50">
+        <v>1128</v>
+      </c>
+      <c r="L50">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>85</v>
+      </c>
+      <c r="H51">
+        <v>150</v>
+      </c>
+      <c r="I51">
+        <v>310</v>
+      </c>
+      <c r="J51">
+        <v>456</v>
+      </c>
+      <c r="K51">
+        <v>686</v>
+      </c>
+      <c r="L51">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>64</v>
+      </c>
+      <c r="F52">
+        <v>73</v>
+      </c>
+      <c r="G52">
+        <v>111</v>
+      </c>
+      <c r="H52">
+        <v>184</v>
+      </c>
+      <c r="I52">
+        <v>240</v>
+      </c>
+      <c r="J52">
+        <v>311</v>
+      </c>
+      <c r="K52">
+        <v>497</v>
+      </c>
+      <c r="L52">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <v>63</v>
+      </c>
+      <c r="G53">
+        <v>122</v>
+      </c>
+      <c r="H53">
+        <v>238</v>
+      </c>
+      <c r="I53">
+        <v>512</v>
+      </c>
+      <c r="J53">
+        <v>786</v>
+      </c>
+      <c r="K53">
+        <v>1121</v>
+      </c>
+      <c r="L53">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <f>B43</f>
+        <v>100000</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:H57" si="6">C43</f>
+        <v>200000</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>300000</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="6"/>
+        <v>400000</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="6"/>
+        <v>500000</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="6"/>
+        <v>1000000</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="6"/>
+        <v>2000000</v>
+      </c>
+      <c r="I57" s="1">
+        <f>I43</f>
+        <v>4000000</v>
+      </c>
+      <c r="J57" s="1">
+        <f>J43</f>
+        <v>6000000</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" ref="K57:L57" si="7">K43</f>
+        <v>8000000</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="7"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>A44</f>
+        <v>Binomial</v>
+      </c>
+      <c r="B58" s="2">
+        <f>B44/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" ref="C58:L58" si="8">C44/MIN(C$44:C$53)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" ref="A59:A67" si="9">A45</f>
+        <v>Fibonacci</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ref="B59:L59" si="10">B45/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="10"/>
         <v>1.125</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="4"/>
+      <c r="D59" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2413793103448276</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2432432432432432</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8813559322033899</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="10"/>
+        <v>2.8354430379746836</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="10"/>
+        <v>3.6315789473684212</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="10"/>
+        <v>4.5121951219512191</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="10"/>
+        <v>4.2326530612244895</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="10"/>
+        <v>6.5524475524475525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="9"/>
+        <v>Hollow</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" ref="B60:L60" si="11">B46/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1724137931034482</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1351351351351351</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3559322033898304</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7088607594936709</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0977443609022557</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5914634146341462</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="11"/>
+        <v>2.5142857142857142</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="11"/>
+        <v>3.5594405594405596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="shared" si="9"/>
+        <v>Pairing</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" ref="B61:L61" si="12">B47/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0540540540540539</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2372881355932204</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5822784810126582</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9172932330827068</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3414634146341462</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="12"/>
+        <v>2.4204081632653063</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="12"/>
+        <v>3.2307692307692308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f t="shared" si="9"/>
+        <v>Quake</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ref="B62:L62" si="13">B48/MIN(B$44:B$53)</f>
+        <v>1.4736842105263157</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5416666666666667</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7586206896551724</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="13"/>
+        <v>1.972972972972973</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1904761904761907</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="13"/>
+        <v>3.3389830508474576</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="13"/>
+        <v>5.1518987341772151</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="13"/>
+        <v>6.6090225563909772</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="13"/>
+        <v>8.4085365853658534</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="13"/>
+        <v>8.2693877551020414</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="13"/>
+        <v>12.685314685314685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f t="shared" si="9"/>
+        <v>Rank-pairing</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ref="B63:L63" si="14">B49/MIN(B$44:B$53)</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="14"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3793103448275863</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4054054054054055</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="14"/>
+        <v>2.0338983050847457</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8987341772151898</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="14"/>
+        <v>4.1578947368421053</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="14"/>
+        <v>5.3170731707317076</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="14"/>
+        <v>5.6979591836734693</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="14"/>
+        <v>7.1888111888111892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f t="shared" si="9"/>
+        <v>Smooth forest</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" ref="B64:L64" si="15">B50/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2702702702702702</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="15"/>
+        <v>2.0847457627118646</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="15"/>
+        <v>3.1772151898734178</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="15"/>
+        <v>3.992481203007519</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="15"/>
+        <v>4.9085365853658534</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="15"/>
+        <v>4.6040816326530614</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="15"/>
+        <v>7.3076923076923075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="shared" si="9"/>
+        <v>Smooth one-tree</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" ref="B65:L65" si="16">B51/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1379310344827587</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1351351351351351</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.4406779661016949</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="16"/>
+        <v>1.8987341772151898</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="16"/>
+        <v>2.3308270676691731</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="16"/>
+        <v>2.7804878048780486</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="16"/>
+        <v>2.8</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="16"/>
+        <v>3.8811188811188813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="shared" si="9"/>
+        <v>Strict Fibonacci</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" ref="B66:L66" si="17">B52/MIN(B$44:B$53)</f>
+        <v>1.5263157894736843</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7586206896551724</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7297297297297298</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7380952380952381</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8813559322033899</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="17"/>
+        <v>2.3291139240506329</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8045112781954886</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8963414634146341</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="17"/>
+        <v>2.0285714285714285</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8461538461538463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="shared" si="9"/>
+        <v>Violation</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:L67" si="18">B53/MIN(B$44:B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="18"/>
+        <v>1.125</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="18"/>
         <v>1.3448275862068966</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="4"/>
+      <c r="E67" s="2">
+        <f t="shared" si="18"/>
         <v>1.4054054054054055</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
+      <c r="F67" s="2">
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="4"/>
+      <c r="G67" s="2">
+        <f t="shared" si="18"/>
         <v>2.0677966101694913</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="4"/>
+      <c r="H67" s="2">
+        <f t="shared" si="18"/>
         <v>3.0126582278481013</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="4"/>
+      <c r="I67" s="2">
+        <f t="shared" si="18"/>
         <v>3.8496240601503757</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="4"/>
+      <c r="J67" s="2">
+        <f t="shared" si="18"/>
         <v>4.7926829268292686</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="4"/>
+      <c r="K67" s="2">
+        <f t="shared" si="18"/>
         <v>4.5755102040816329</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="4"/>
+      <c r="L67" s="2">
+        <f t="shared" si="18"/>
         <v>7.0629370629370634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>A58</f>
+        <v>Binomial</v>
+      </c>
+      <c r="B73">
+        <v>890</v>
+      </c>
+      <c r="C73">
+        <v>799</v>
+      </c>
+      <c r="D73">
+        <f>B73-C73</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="shared" ref="A74:A82" si="19">A59</f>
+        <v>Fibonacci</v>
+      </c>
+      <c r="B74">
+        <v>1660</v>
+      </c>
+      <c r="C74">
+        <v>1209</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D82" si="20">B74-C74</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="shared" si="19"/>
+        <v>Hollow</v>
+      </c>
+      <c r="B75">
+        <v>1236</v>
+      </c>
+      <c r="C75">
+        <v>950</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="20"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="shared" si="19"/>
+        <v>Pairing</v>
+      </c>
+      <c r="B76">
+        <v>1280</v>
+      </c>
+      <c r="C76">
+        <v>981</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="20"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="shared" si="19"/>
+        <v>Quake</v>
+      </c>
+      <c r="B77">
+        <v>2968</v>
+      </c>
+      <c r="C77">
+        <v>2088</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="20"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="19"/>
+        <v>Rank-pairing</v>
+      </c>
+      <c r="B78">
+        <v>1745</v>
+      </c>
+      <c r="C78">
+        <v>1229</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="20"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="19"/>
+        <v>Smooth forest</v>
+      </c>
+      <c r="B79">
+        <v>1476</v>
+      </c>
+      <c r="C79">
+        <v>1055</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="20"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="19"/>
+        <v>Smooth one-tree</v>
+      </c>
+      <c r="B80">
+        <v>1827</v>
+      </c>
+      <c r="C80">
+        <v>1553</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="20"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="19"/>
+        <v>Strict Fibonacci</v>
+      </c>
+      <c r="B81">
+        <v>4780</v>
+      </c>
+      <c r="C81">
+        <v>4532</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="19"/>
+        <v>Violation</v>
+      </c>
+      <c r="B82">
+        <v>1730</v>
+      </c>
+      <c r="C82">
+        <v>1266</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="20"/>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Edmonds.xlsx
+++ b/Data/Edmonds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>Times are in milliseconds</t>
   </si>
@@ -65,9 +65,6 @@
     <t>V = 100,000</t>
   </si>
   <si>
-    <t>Only considering second phase</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -77,16 +74,7 @@
     <t>Pop</t>
   </si>
   <si>
-    <t>Number of pop's &amp; SCC's</t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>V = 100,000, E =</t>
-  </si>
-  <si>
-    <t>6,000,000 pushes in 100,000 heaps followed by 110,000 pops</t>
+    <t>Pop's &amp; SCC's</t>
   </si>
 </sst>
 </file>
@@ -122,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,7 +185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -234,7 +223,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -273,7 +262,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:f>Sheet1!$B$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -281,31 +270,31 @@
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>618.0</c:v>
+                  <c:v>746.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1367.0</c:v>
+                  <c:v>1394.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2540.0</c:v>
+                  <c:v>2160.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2661.0</c:v>
+                  <c:v>2804.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,7 +306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -355,7 +344,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -394,39 +383,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.0</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531.0</c:v>
+                  <c:v>574.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>886.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1953.0</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3520.0</c:v>
+                  <c:v>3066.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3957.0</c:v>
+                  <c:v>4044.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,7 +427,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -476,7 +465,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -515,39 +504,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>401.0</c:v>
+                  <c:v>448.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>637.0</c:v>
+                  <c:v>738.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1394.0</c:v>
+                  <c:v>1434.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2723.0</c:v>
+                  <c:v>2175.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2868.0</c:v>
+                  <c:v>2984.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,7 +548,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -595,7 +584,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -634,39 +623,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>630.0</c:v>
+                  <c:v>732.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1388.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2751.0</c:v>
+                  <c:v>2266.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2814.0</c:v>
+                  <c:v>2960.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,7 +667,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -714,7 +703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -753,7 +742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$K$7</c:f>
+              <c:f>Sheet1!$B$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -764,28 +753,28 @@
                   <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154.0</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.0</c:v>
+                  <c:v>217.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>274.0</c:v>
+                  <c:v>287.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>755.0</c:v>
+                  <c:v>829.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1247.0</c:v>
+                  <c:v>1428.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2806.0</c:v>
+                  <c:v>2811.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5240.0</c:v>
+                  <c:v>4507.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5708.0</c:v>
+                  <c:v>5896.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +786,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -835,7 +824,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -874,39 +863,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$K$8</c:f>
+              <c:f>Sheet1!$B$23:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>566.0</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>853.0</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2055.0</c:v>
+                  <c:v>2079.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4032.0</c:v>
+                  <c:v>3348.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4178.0</c:v>
+                  <c:v>4431.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +907,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -957,7 +946,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -996,7 +985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$K$9</c:f>
+              <c:f>Sheet1!$B$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1004,31 +993,31 @@
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.0</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.0</c:v>
+                  <c:v>536.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>849.0</c:v>
+                  <c:v>941.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1854.0</c:v>
+                  <c:v>1847.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3274.0</c:v>
+                  <c:v>2890.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3776.0</c:v>
+                  <c:v>3828.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1029,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1081,7 +1070,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1120,7 +1109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1128,31 +1117,31 @@
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.0</c:v>
+                  <c:v>521.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>784.0</c:v>
+                  <c:v>888.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1734.0</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3220.0</c:v>
+                  <c:v>2758.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3522.0</c:v>
+                  <c:v>3672.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1153,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1205,7 +1194,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1244,39 +1233,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$K$11</c:f>
+              <c:f>Sheet1!$B$26:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>58.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.0</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255.0</c:v>
+                  <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>326.0</c:v>
+                  <c:v>333.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>943.0</c:v>
+                  <c:v>1042.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1628.0</c:v>
+                  <c:v>1843.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3789.0</c:v>
+                  <c:v>3787.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7321.0</c:v>
+                  <c:v>6307.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8150.0</c:v>
+                  <c:v>8382.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1277,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1329,7 +1318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1368,7 +1357,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$K$12</c:f>
+              <c:f>Sheet1!$B$27:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1382,25 +1371,25 @@
                   <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.0</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537.0</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>851.0</c:v>
+                  <c:v>997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1892.0</c:v>
+                  <c:v>1896.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3500.0</c:v>
+                  <c:v>2981.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3818.0</c:v>
+                  <c:v>3941.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134210176"/>
-        <c:axId val="2135026736"/>
+        <c:axId val="-2133159952"/>
+        <c:axId val="-2085274832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134210176"/>
+        <c:axId val="-2133159952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -1477,14 +1466,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135026736"/>
+        <c:crossAx val="-2085274832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135026736"/>
+        <c:axId val="-2085274832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1539,7 +1529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134210176"/>
+        <c:crossAx val="-2133159952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1676,7 +1666,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1714,7 +1704,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1753,7 +1743,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:f>Sheet1!$B$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1761,31 +1751,31 @@
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.0</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.0</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>618.0</c:v>
+                  <c:v>746.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1367.0</c:v>
+                  <c:v>1394.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2540.0</c:v>
+                  <c:v>2160.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2661.0</c:v>
+                  <c:v>2804.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1787,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1835,7 +1825,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1874,39 +1864,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>33.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.0</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>199.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>531.0</c:v>
+                  <c:v>574.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>886.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1953.0</c:v>
+                  <c:v>1944.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3520.0</c:v>
+                  <c:v>3066.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3957.0</c:v>
+                  <c:v>4044.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,7 +1908,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1956,7 +1946,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1995,39 +1985,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.0</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.0</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>401.0</c:v>
+                  <c:v>448.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>637.0</c:v>
+                  <c:v>738.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1394.0</c:v>
+                  <c:v>1434.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2723.0</c:v>
+                  <c:v>2175.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2868.0</c:v>
+                  <c:v>2984.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,7 +2029,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2075,7 +2065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2114,39 +2104,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.0</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396.0</c:v>
+                  <c:v>440.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>630.0</c:v>
+                  <c:v>732.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1388.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2751.0</c:v>
+                  <c:v>2266.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2814.0</c:v>
+                  <c:v>2960.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2148,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2196,7 +2186,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2235,39 +2225,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$K$8</c:f>
+              <c:f>Sheet1!$B$23:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.0</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.0</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>566.0</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>853.0</c:v>
+                  <c:v>1061.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2055.0</c:v>
+                  <c:v>2079.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4032.0</c:v>
+                  <c:v>3348.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4178.0</c:v>
+                  <c:v>4431.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,7 +2269,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2318,7 +2308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2357,7 +2347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$K$9</c:f>
+              <c:f>Sheet1!$B$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2365,31 +2355,31 @@
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.0</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.0</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500.0</c:v>
+                  <c:v>536.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>849.0</c:v>
+                  <c:v>941.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1854.0</c:v>
+                  <c:v>1847.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3274.0</c:v>
+                  <c:v>2890.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3776.0</c:v>
+                  <c:v>3828.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,7 +2391,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2442,7 +2432,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2481,7 +2471,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2489,31 +2479,31 @@
                   <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.0</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.0</c:v>
+                  <c:v>521.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>784.0</c:v>
+                  <c:v>888.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1734.0</c:v>
+                  <c:v>1760.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3220.0</c:v>
+                  <c:v>2758.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3522.0</c:v>
+                  <c:v>3672.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,7 +2515,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2566,7 +2556,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2605,7 +2595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$K$12</c:f>
+              <c:f>Sheet1!$B$27:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2619,25 +2609,25 @@
                   <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.0</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>537.0</c:v>
+                  <c:v>590.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>851.0</c:v>
+                  <c:v>997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1892.0</c:v>
+                  <c:v>1896.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3500.0</c:v>
+                  <c:v>2981.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3818.0</c:v>
+                  <c:v>3941.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,11 +2642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137669440"/>
-        <c:axId val="2137672800"/>
+        <c:axId val="-2051809584"/>
+        <c:axId val="-2069531232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137669440"/>
+        <c:axId val="-2051809584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -2714,14 +2704,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137672800"/>
+        <c:crossAx val="-2069531232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137672800"/>
+        <c:axId val="-2069531232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4500.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2739,7 +2730,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2777,7 +2767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137669440"/>
+        <c:crossAx val="-2051809584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4094,20 +4084,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4124,20 +4114,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4418,2165 +4408,2640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="L12" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
         <v>200000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>300000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
         <v>400000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="P2" s="1"/>
+      <c r="R2" s="1">
         <v>500000</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>6000000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8000000</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>8000000</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>32</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <f>F4-G4</f>
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>98</v>
+      </c>
+      <c r="K4">
+        <v>69</v>
+      </c>
+      <c r="L4">
+        <f>J4-K4</f>
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>132</v>
+      </c>
+      <c r="O4">
+        <v>96</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4</f>
+        <v>36</v>
+      </c>
+      <c r="R4">
+        <v>167</v>
+      </c>
+      <c r="S4">
+        <v>120</v>
+      </c>
+      <c r="T4">
+        <f>R4-S4</f>
+        <v>47</v>
+      </c>
+      <c r="V4">
+        <v>475</v>
+      </c>
+      <c r="W4">
+        <v>258</v>
+      </c>
+      <c r="X4">
+        <f>V4-W4</f>
+        <v>217</v>
+      </c>
+      <c r="Z4">
+        <v>746</v>
+      </c>
+      <c r="AA4">
+        <v>551</v>
+      </c>
+      <c r="AB4">
+        <f>Z4-AA4</f>
+        <v>195</v>
+      </c>
+      <c r="AD4">
+        <v>1394</v>
+      </c>
+      <c r="AE4">
+        <v>1162</v>
+      </c>
+      <c r="AF4">
+        <f>AD4-AE4</f>
+        <v>232</v>
+      </c>
+      <c r="AH4">
+        <v>2160</v>
+      </c>
+      <c r="AI4">
+        <v>1794</v>
+      </c>
+      <c r="AJ4">
+        <f>AH4-AI4</f>
+        <v>366</v>
+      </c>
+      <c r="AL4">
+        <v>2804</v>
+      </c>
+      <c r="AM4">
+        <v>2453</v>
+      </c>
+      <c r="AN4">
+        <f>AL4-AM4</f>
+        <v>351</v>
+      </c>
+      <c r="AP4">
+        <v>3349</v>
+      </c>
+      <c r="AQ4">
+        <v>2458</v>
+      </c>
+      <c r="AR4">
+        <f>AP4-AQ4</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D13" si="0">B5-C5</f>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="1">F5-G5</f>
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>113</v>
+      </c>
+      <c r="K5">
+        <v>79</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L13" si="2">J5-K5</f>
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>159</v>
+      </c>
+      <c r="O5">
+        <v>114</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P13" si="3">N5-O5</f>
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <v>206</v>
+      </c>
+      <c r="S5">
+        <v>146</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T13" si="4">R5-S5</f>
+        <v>60</v>
+      </c>
+      <c r="V5">
+        <v>574</v>
+      </c>
+      <c r="W5">
+        <v>317</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X13" si="5">V5-W5</f>
+        <v>257</v>
+      </c>
+      <c r="Z5">
+        <v>1000</v>
+      </c>
+      <c r="AA5">
+        <v>667</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB13" si="6">Z5-AA5</f>
+        <v>333</v>
+      </c>
+      <c r="AD5">
+        <v>1944</v>
+      </c>
+      <c r="AE5">
+        <v>1373</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF13" si="7">AD5-AE5</f>
+        <v>571</v>
+      </c>
+      <c r="AH5">
+        <v>3066</v>
+      </c>
+      <c r="AI5">
+        <v>2115</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ref="AJ5:AJ13" si="8">AH5-AI5</f>
+        <v>951</v>
+      </c>
+      <c r="AL5">
+        <v>4044</v>
+      </c>
+      <c r="AM5">
+        <v>2884</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ref="AN5:AN13" si="9">AL5-AM5</f>
+        <v>1160</v>
+      </c>
+      <c r="AP5">
+        <v>4606</v>
+      </c>
+      <c r="AQ5">
+        <v>2865</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ref="AR5:AR13" si="10">AP5-AQ5</f>
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <v>127</v>
+      </c>
+      <c r="O6">
+        <v>85</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="R6">
+        <v>165</v>
+      </c>
+      <c r="S6">
+        <v>112</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="V6">
+        <v>448</v>
+      </c>
+      <c r="W6">
+        <v>239</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="Z6">
+        <v>738</v>
+      </c>
+      <c r="AA6">
+        <v>505</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="AD6">
+        <v>1434</v>
+      </c>
+      <c r="AE6">
+        <v>1064</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="7"/>
+        <v>370</v>
+      </c>
+      <c r="AH6">
+        <v>2175</v>
+      </c>
+      <c r="AI6">
+        <v>1570</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="8"/>
+        <v>605</v>
+      </c>
+      <c r="AL6">
+        <v>2984</v>
+      </c>
+      <c r="AM6">
+        <v>2230</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="9"/>
+        <v>754</v>
+      </c>
+      <c r="AP6">
+        <v>3645</v>
+      </c>
+      <c r="AQ6">
+        <v>2225</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="10"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>54</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>118</v>
+      </c>
+      <c r="O7">
+        <v>79</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="R7">
+        <v>157</v>
+      </c>
+      <c r="S7">
+        <v>107</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="V7">
+        <v>440</v>
+      </c>
+      <c r="W7">
+        <v>237</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="Z7">
+        <v>732</v>
+      </c>
+      <c r="AA7">
+        <v>510</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="AD7">
+        <v>1424</v>
+      </c>
+      <c r="AE7">
+        <v>1076</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="7"/>
+        <v>348</v>
+      </c>
+      <c r="AH7">
+        <v>2266</v>
+      </c>
+      <c r="AI7">
+        <v>1654</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="8"/>
+        <v>612</v>
+      </c>
+      <c r="AL7">
+        <v>2960</v>
+      </c>
+      <c r="AM7">
+        <v>2232</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="9"/>
+        <v>728</v>
+      </c>
+      <c r="AP7">
+        <v>3716</v>
+      </c>
+      <c r="AQ7">
+        <v>2249</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="10"/>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>97</v>
+      </c>
+      <c r="G8">
+        <v>58</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>156</v>
+      </c>
+      <c r="K8">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>217</v>
+      </c>
+      <c r="O8">
+        <v>141</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="R8">
+        <v>287</v>
+      </c>
+      <c r="S8">
+        <v>186</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="V8">
+        <v>829</v>
+      </c>
+      <c r="W8">
+        <v>404</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="Z8">
+        <v>1428</v>
+      </c>
+      <c r="AA8">
+        <v>853</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="AD8">
+        <v>2811</v>
+      </c>
+      <c r="AE8">
+        <v>1776</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="7"/>
+        <v>1035</v>
+      </c>
+      <c r="AH8">
+        <v>4507</v>
+      </c>
+      <c r="AI8">
+        <v>2786</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="8"/>
+        <v>1721</v>
+      </c>
+      <c r="AL8">
+        <v>5896</v>
+      </c>
+      <c r="AM8">
+        <v>3758</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="9"/>
+        <v>2138</v>
+      </c>
+      <c r="AP8">
+        <v>6878</v>
+      </c>
+      <c r="AQ8">
+        <v>3272</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="10"/>
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="G9">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>116</v>
+      </c>
+      <c r="K9">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <v>107</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="R9">
+        <v>210</v>
+      </c>
+      <c r="S9">
+        <v>140</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="D3">
-        <v>95</v>
-      </c>
-      <c r="E3">
-        <v>127</v>
-      </c>
-      <c r="F3">
-        <v>158</v>
-      </c>
-      <c r="G3">
-        <v>424</v>
-      </c>
-      <c r="H3">
-        <v>618</v>
-      </c>
-      <c r="I3">
-        <v>1367</v>
-      </c>
-      <c r="J3">
-        <v>2540</v>
-      </c>
-      <c r="K3">
-        <v>2661</v>
+      <c r="V9">
+        <v>628</v>
+      </c>
+      <c r="W9">
+        <v>312</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="Z9">
+        <v>1061</v>
+      </c>
+      <c r="AA9">
+        <v>634</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
+      <c r="AD9">
+        <v>2079</v>
+      </c>
+      <c r="AE9">
+        <v>1326</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="7"/>
+        <v>753</v>
+      </c>
+      <c r="AH9">
+        <v>3348</v>
+      </c>
+      <c r="AI9">
+        <v>2030</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="8"/>
+        <v>1318</v>
+      </c>
+      <c r="AL9">
+        <v>4431</v>
+      </c>
+      <c r="AM9">
+        <v>2788</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="9"/>
+        <v>1643</v>
+      </c>
+      <c r="AP9">
+        <v>5461</v>
+      </c>
+      <c r="AQ9">
+        <v>2786</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="10"/>
+        <v>2675</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>115</v>
-      </c>
-      <c r="E4">
-        <v>157</v>
-      </c>
-      <c r="F4">
-        <v>199</v>
-      </c>
-      <c r="G4">
-        <v>531</v>
-      </c>
-      <c r="H4">
-        <v>886</v>
-      </c>
-      <c r="I4">
-        <v>1953</v>
-      </c>
-      <c r="J4">
-        <v>3520</v>
-      </c>
-      <c r="K4">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>94</v>
-      </c>
-      <c r="E5">
-        <v>124</v>
-      </c>
-      <c r="F5">
-        <v>154</v>
-      </c>
-      <c r="G5">
-        <v>401</v>
-      </c>
-      <c r="H5">
-        <v>637</v>
-      </c>
-      <c r="I5">
-        <v>1394</v>
-      </c>
-      <c r="J5">
-        <v>2723</v>
-      </c>
-      <c r="K5">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>86</v>
-      </c>
-      <c r="E6">
-        <v>116</v>
-      </c>
-      <c r="F6">
-        <v>148</v>
-      </c>
-      <c r="G6">
-        <v>396</v>
-      </c>
-      <c r="H6">
-        <v>630</v>
-      </c>
-      <c r="I6">
-        <v>1388</v>
-      </c>
-      <c r="J6">
-        <v>2751</v>
-      </c>
-      <c r="K6">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>97</v>
-      </c>
-      <c r="D7">
-        <v>154</v>
-      </c>
-      <c r="E7">
-        <v>212</v>
-      </c>
-      <c r="F7">
-        <v>274</v>
-      </c>
-      <c r="G7">
-        <v>755</v>
-      </c>
-      <c r="H7">
-        <v>1247</v>
-      </c>
-      <c r="I7">
-        <v>2806</v>
-      </c>
-      <c r="J7">
-        <v>5240</v>
-      </c>
-      <c r="K7">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>73</v>
-      </c>
-      <c r="D8">
-        <v>112</v>
-      </c>
-      <c r="E8">
-        <v>154</v>
-      </c>
-      <c r="F8">
-        <v>198</v>
-      </c>
-      <c r="G8">
-        <v>566</v>
-      </c>
-      <c r="H8">
-        <v>853</v>
-      </c>
-      <c r="I8">
-        <v>2055</v>
-      </c>
-      <c r="J8">
-        <v>4032</v>
-      </c>
-      <c r="K8">
-        <v>4178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <v>106</v>
-      </c>
-      <c r="E9">
-        <v>147</v>
-      </c>
-      <c r="F9">
-        <v>189</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>849</v>
-      </c>
-      <c r="I9">
-        <v>1854</v>
-      </c>
-      <c r="J9">
-        <v>3274</v>
-      </c>
-      <c r="K9">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
       </c>
       <c r="B10">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>96</v>
-      </c>
-      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>103</v>
+      </c>
+      <c r="K10">
+        <v>68</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>151</v>
+      </c>
+      <c r="O10">
+        <v>101</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>198</v>
+      </c>
+      <c r="S10">
+        <v>133</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="V10">
+        <v>536</v>
+      </c>
+      <c r="W10">
+        <v>278</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="Z10">
+        <v>941</v>
+      </c>
+      <c r="AA10">
+        <v>599</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="AD10">
+        <v>1847</v>
+      </c>
+      <c r="AE10">
+        <v>1242</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="7"/>
+        <v>605</v>
+      </c>
+      <c r="AH10">
+        <v>2890</v>
+      </c>
+      <c r="AI10">
+        <v>1900</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="8"/>
+        <v>990</v>
+      </c>
+      <c r="AL10">
+        <v>3828</v>
+      </c>
+      <c r="AM10">
+        <v>2606</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="9"/>
+        <v>1222</v>
+      </c>
+      <c r="AP10">
+        <v>4262</v>
+      </c>
+      <c r="AQ10">
+        <v>2583</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="10"/>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>97</v>
+      </c>
+      <c r="K11">
+        <v>64</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N11">
+        <v>137</v>
+      </c>
+      <c r="O11">
+        <v>94</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <v>181</v>
+      </c>
+      <c r="S11">
+        <v>126</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="V11">
+        <v>521</v>
+      </c>
+      <c r="W11">
+        <v>289</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>232</v>
+      </c>
+      <c r="Z11">
+        <v>888</v>
+      </c>
+      <c r="AA11">
+        <v>629</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="AD11">
+        <v>1760</v>
+      </c>
+      <c r="AE11">
+        <v>1347</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="7"/>
+        <v>413</v>
+      </c>
+      <c r="AH11">
+        <v>2758</v>
+      </c>
+      <c r="AI11">
+        <v>2069</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="8"/>
+        <v>689</v>
+      </c>
+      <c r="AL11">
+        <v>3672</v>
+      </c>
+      <c r="AM11">
+        <v>2854</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="9"/>
+        <v>818</v>
+      </c>
+      <c r="AP11">
+        <v>4311</v>
+      </c>
+      <c r="AQ11">
+        <v>2820</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="10"/>
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>113</v>
+      </c>
+      <c r="G12">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J12">
+        <v>180</v>
+      </c>
+      <c r="K12">
+        <v>125</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="N12">
+        <v>254</v>
+      </c>
+      <c r="O12">
+        <v>187</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <v>333</v>
+      </c>
+      <c r="S12">
+        <v>251</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="V12">
+        <v>1042</v>
+      </c>
+      <c r="W12">
+        <v>617</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="Z12">
+        <v>1843</v>
+      </c>
+      <c r="AA12">
+        <v>1468</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="AD12">
+        <v>3787</v>
+      </c>
+      <c r="AE12">
+        <v>3344</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="7"/>
+        <v>443</v>
+      </c>
+      <c r="AH12">
+        <v>6307</v>
+      </c>
+      <c r="AI12">
+        <v>5539</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="8"/>
+        <v>768</v>
+      </c>
+      <c r="AL12">
+        <v>8382</v>
+      </c>
+      <c r="AM12">
+        <v>7651</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="9"/>
+        <v>731</v>
+      </c>
+      <c r="AP12">
+        <v>9803</v>
+      </c>
+      <c r="AQ12">
+        <v>7613</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="10"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>111</v>
+      </c>
+      <c r="K13">
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>158</v>
+      </c>
+      <c r="O13">
+        <v>104</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="R13">
+        <v>205</v>
+      </c>
+      <c r="S13">
         <v>136</v>
       </c>
-      <c r="F10">
-        <v>173</v>
-      </c>
-      <c r="G10">
-        <v>477</v>
-      </c>
-      <c r="H10">
-        <v>784</v>
-      </c>
-      <c r="I10">
-        <v>1734</v>
-      </c>
-      <c r="J10">
-        <v>3220</v>
-      </c>
-      <c r="K10">
-        <v>3522</v>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="V13">
+        <v>590</v>
+      </c>
+      <c r="W13">
+        <v>291</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="Z13">
+        <v>997</v>
+      </c>
+      <c r="AA13">
+        <v>620</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="6"/>
+        <v>377</v>
+      </c>
+      <c r="AD13">
+        <v>1896</v>
+      </c>
+      <c r="AE13">
+        <v>1267</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="7"/>
+        <v>629</v>
+      </c>
+      <c r="AH13">
+        <v>2981</v>
+      </c>
+      <c r="AI13">
+        <v>1960</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="8"/>
+        <v>1021</v>
+      </c>
+      <c r="AL13">
+        <v>3941</v>
+      </c>
+      <c r="AM13">
+        <v>2686</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="9"/>
+        <v>1255</v>
+      </c>
+      <c r="AP13">
+        <v>4612</v>
+      </c>
+      <c r="AQ13">
+        <v>2656</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="10"/>
+        <v>1956</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>112</v>
-      </c>
-      <c r="D11">
-        <v>177</v>
-      </c>
-      <c r="E11">
-        <v>255</v>
-      </c>
-      <c r="F11">
-        <v>326</v>
-      </c>
-      <c r="G11">
-        <v>943</v>
-      </c>
-      <c r="H11">
-        <v>1628</v>
-      </c>
-      <c r="I11">
-        <v>3789</v>
-      </c>
-      <c r="J11">
-        <v>7321</v>
-      </c>
-      <c r="K11">
-        <v>8150</v>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>99999</v>
+      </c>
+      <c r="C14">
+        <v>99999</v>
+      </c>
+      <c r="F14">
+        <v>100007</v>
+      </c>
+      <c r="G14">
+        <v>100007</v>
+      </c>
+      <c r="J14">
+        <v>100009</v>
+      </c>
+      <c r="K14">
+        <v>100009</v>
+      </c>
+      <c r="N14">
+        <v>100015</v>
+      </c>
+      <c r="O14">
+        <v>100015</v>
+      </c>
+      <c r="R14">
+        <v>100343</v>
+      </c>
+      <c r="S14">
+        <v>100320</v>
+      </c>
+      <c r="V14">
+        <v>137613</v>
+      </c>
+      <c r="W14">
+        <v>120292</v>
+      </c>
+      <c r="Z14">
+        <v>122810</v>
+      </c>
+      <c r="AA14">
+        <v>114195</v>
+      </c>
+      <c r="AD14">
+        <v>122577</v>
+      </c>
+      <c r="AE14">
+        <v>114020</v>
+      </c>
+      <c r="AH14">
+        <v>147342</v>
+      </c>
+      <c r="AI14">
+        <v>123521</v>
+      </c>
+      <c r="AL14">
+        <v>139319</v>
+      </c>
+      <c r="AM14">
+        <v>120900</v>
+      </c>
+      <c r="AP14">
+        <v>272376</v>
+      </c>
+      <c r="AQ14">
+        <v>143142</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>71</v>
-      </c>
-      <c r="D12">
-        <v>111</v>
-      </c>
-      <c r="E12">
-        <v>156</v>
-      </c>
-      <c r="F12">
-        <v>196</v>
-      </c>
-      <c r="G12">
-        <v>537</v>
-      </c>
-      <c r="H12">
-        <v>851</v>
-      </c>
-      <c r="I12">
-        <v>1892</v>
-      </c>
-      <c r="J12">
-        <v>3500</v>
-      </c>
-      <c r="K12">
-        <v>3818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <f>B2</f>
-        <v>100000</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:H16" si="0">C2</f>
-        <v>200000</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="I16" s="1">
-        <f>I2</f>
-        <v>4000000</v>
-      </c>
-      <c r="J16" s="1">
-        <f>J2</f>
-        <v>6000000</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" ref="K16" si="1">K2</f>
-        <v>8000000</v>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>A3</f>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>AP2</f>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>B4</f>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <f>F4</f>
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <f>J4</f>
+        <v>98</v>
+      </c>
+      <c r="E18">
+        <f>N4</f>
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <f>R4</f>
+        <v>167</v>
+      </c>
+      <c r="G18">
+        <f>V4</f>
+        <v>475</v>
+      </c>
+      <c r="H18">
+        <f>Z4</f>
+        <v>746</v>
+      </c>
+      <c r="I18">
+        <f>AD4</f>
+        <v>1394</v>
+      </c>
+      <c r="J18">
+        <f>AH4</f>
+        <v>2160</v>
+      </c>
+      <c r="K18">
+        <f>AL4</f>
+        <v>2804</v>
+      </c>
+      <c r="L18" s="3">
+        <f>AP4</f>
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B27" si="11">B5</f>
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C27" si="12">F5</f>
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D27" si="13">J5</f>
+        <v>113</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E27" si="14">N5</f>
+        <v>159</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F27" si="15">R5</f>
+        <v>206</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G27" si="16">V5</f>
+        <v>574</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H27" si="17">Z5</f>
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I27" si="18">AD5</f>
+        <v>1944</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J27" si="19">AH5</f>
+        <v>3066</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K27" si="20">AL5</f>
+        <v>4044</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" ref="L19:L27" si="21">AP5</f>
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="14"/>
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="16"/>
+        <v>448</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="17"/>
+        <v>738</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="18"/>
+        <v>1434</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="19"/>
+        <v>2175</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="20"/>
+        <v>2984</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="21"/>
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="15"/>
+        <v>157</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="16"/>
+        <v>440</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="17"/>
+        <v>732</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="18"/>
+        <v>1424</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="19"/>
+        <v>2266</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="20"/>
+        <v>2960</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="21"/>
+        <v>3716</v>
+      </c>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="13"/>
+        <v>156</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="15"/>
+        <v>287</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="16"/>
+        <v>829</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="17"/>
+        <v>1428</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="18"/>
+        <v>2811</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="19"/>
+        <v>4507</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="20"/>
+        <v>5896</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="21"/>
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="13"/>
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="14"/>
+        <v>159</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="16"/>
+        <v>628</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="17"/>
+        <v>1061</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="18"/>
+        <v>2079</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="19"/>
+        <v>3348</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="20"/>
+        <v>4431</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="21"/>
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="15"/>
+        <v>198</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="16"/>
+        <v>536</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="17"/>
+        <v>941</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="18"/>
+        <v>1847</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="19"/>
+        <v>2890</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="20"/>
+        <v>3828</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="21"/>
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="14"/>
+        <v>137</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="15"/>
+        <v>181</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="16"/>
+        <v>521</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="17"/>
+        <v>888</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="18"/>
+        <v>1760</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="19"/>
+        <v>2758</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="20"/>
+        <v>3672</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="21"/>
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="12"/>
+        <v>113</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="14"/>
+        <v>254</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="15"/>
+        <v>333</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="16"/>
+        <v>1042</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="17"/>
+        <v>1843</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="18"/>
+        <v>3787</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="19"/>
+        <v>6307</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="20"/>
+        <v>8382</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="21"/>
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="14"/>
+        <v>158</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="16"/>
+        <v>590</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="17"/>
+        <v>997</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="18"/>
+        <v>1896</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>2981</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="20"/>
+        <v>3941</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="21"/>
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <f>B17</f>
+        <v>100000</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:K31" si="22">C17</f>
+        <v>200000</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="22"/>
+        <v>300000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="22"/>
+        <v>400000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="22"/>
+        <v>500000</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="22"/>
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="22"/>
+        <v>2000000</v>
+      </c>
+      <c r="I31" s="1">
+        <f>I17</f>
+        <v>4000000</v>
+      </c>
+      <c r="J31" s="1">
+        <f>J17</f>
+        <v>6000000</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" ref="K31:L31" si="23">K17</f>
+        <v>8000000</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>A18</f>
         <v>Binomial</v>
       </c>
-      <c r="B17" s="2">
-        <f>B3/MIN(B$3:B$12)</f>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:K17" si="2">C3/MIN(C$3:C$12)</f>
-        <v>1.2727272727272727</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1046511627906976</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0948275862068966</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0675675675675675</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0707070707070707</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="2"/>
+      <c r="B32" s="2">
+        <f>B18/MIN(B$18:B$27)</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:L32" si="24">C18/MIN(C$18:C$27)</f>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1186440677966101</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="24"/>
+        <v>1.0636942675159236</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="24"/>
+        <v>1.0795454545454546</v>
+      </c>
+      <c r="H32" s="2">
+        <f>H18/MIN(H$18:H$27)</f>
+        <v>1.0191256830601092</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="2"/>
+      <c r="J32" s="2">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
+      <c r="K32" s="2">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K17" s="2">
-        <f t="shared" si="2"/>
+      <c r="L32" s="2">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" ref="A18:A26" si="3">A4</f>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A41" si="25">A19</f>
         <v>Fibonacci</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" ref="B18:K26" si="4">B4/MIN(B$3:B$12)</f>
-        <v>1.1785714285714286</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4181818181818182</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3372093023255813</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.353448275862069</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3445945945945945</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3409090909090908</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4336569579288025</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4286759326993417</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3858267716535433</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4870349492671928</v>
-      </c>
-      <c r="L18" s="2"/>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:L33" si="26">B19/MIN(B$18:B$27)</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3090909090909091</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3452380952380953</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.347457627118644</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3121019108280254</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3045454545454545</v>
+      </c>
+      <c r="H33" s="2">
+        <f>H19/MIN(H$18:H$27)</f>
+        <v>1.3661202185792349</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3945480631276901</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.4194444444444445</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.442225392296719</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3753359211704987</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f t="shared" si="3"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="25"/>
         <v>Hollow</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" si="4"/>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:L34" si="27">B20/MIN(B$18:B$27)</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1272727272727272</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="27"/>
         <v>1.1071428571428572</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0930232558139534</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0689655172413792</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0405405405405406</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0126262626262625</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0307443365695792</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.019751280175567</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0720472440944881</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0777903043968433</v>
-      </c>
-      <c r="L19" s="2"/>
+      <c r="E34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.076271186440678</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0509554140127388</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="H34" s="2">
+        <f>H20/MIN(H$18:H$27)</f>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0286944045911048</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0069444444444444</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0641940085592012</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0883845924156466</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" si="3"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="25"/>
         <v>Pairing</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" si="4"/>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:L35" si="28">B21/MIN(B$18:B$27)</f>
         <v>1</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="4"/>
+      <c r="C35" s="2">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="4"/>
+      <c r="D35" s="2">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="4"/>
+      <c r="E35" s="2">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
+      <c r="F35" s="2">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
+      <c r="G35" s="2">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0194174757281553</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0153621068032188</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0830708661417323</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0574971815107101</v>
-      </c>
-      <c r="L20" s="2"/>
+      <c r="H35" s="2">
+        <f>H21/MIN(H$18:H$27)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0215208034433285</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="28"/>
+        <v>1.049074074074074</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0556348074179742</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1095849507315616</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="3"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="25"/>
         <v>Quake</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="4"/>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:L36" si="29">B22/MIN(B$18:B$27)</f>
+        <v>1.7037037037037037</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="29"/>
         <v>1.7636363636363637</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7906976744186047</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8275862068965518</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8513513513513513</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9065656565656566</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0177993527508091</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0526700804681783</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0629921259842519</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="4"/>
-        <v>2.1450582487786547</v>
-      </c>
-      <c r="L21" s="2"/>
+      <c r="D36" s="2">
+        <f t="shared" si="29"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="29"/>
+        <v>1.8389830508474576</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="29"/>
+        <v>1.8280254777070064</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="29"/>
+        <v>1.884090909090909</v>
+      </c>
+      <c r="H36" s="2">
+        <f>H22/MIN(H$18:H$27)</f>
+        <v>1.9508196721311475</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="29"/>
+        <v>2.0164992826398853</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="29"/>
+        <v>2.0865740740740741</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="29"/>
+        <v>2.1027104136947217</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="29"/>
+        <v>2.0537473872797851</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" si="3"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="25"/>
         <v>Rank-pairing</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3272727272727274</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3023255813953489</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3275862068965518</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3378378378378379</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4292929292929293</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3802588996763754</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5032918800292612</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5874015748031496</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5700864336715521</v>
-      </c>
-      <c r="L22" s="2"/>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:L37" si="30">B23/MIN(B$18:B$27)</f>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.3454545454545455</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.347457627118644</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.3375796178343948</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.4272727272727272</v>
+      </c>
+      <c r="H37" s="2">
+        <f>H23/MIN(H$18:H$27)</f>
+        <v>1.4494535519125684</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.4913916786226686</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.55</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.5802425106990015</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="30"/>
+        <v>1.6306360107494775</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" si="3"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="25"/>
         <v>Smooth forest</v>
       </c>
-      <c r="B23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0357142857142858</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2363636363636363</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2325581395348837</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2672413793103448</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.277027027027027</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2626262626262625</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3737864077669903</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3562545720555963</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2889763779527559</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4190154077414505</v>
-      </c>
-      <c r="L23" s="2"/>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:L38" si="31">B24/MIN(B$18:B$27)</f>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2261904761904763</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2796610169491525</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2611464968152866</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="H38" s="2">
+        <f>H24/MIN(H$18:H$27)</f>
+        <v>1.28551912568306</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.3249641319942611</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.337962962962963</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.3651925820256776</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="31"/>
+        <v>1.2726186921469096</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" si="3"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="25"/>
         <v>Smooth one-tree</v>
       </c>
-      <c r="B24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0357142857142858</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1272727272727272</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1162790697674418</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1724137931034482</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1689189189189189</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2045454545454546</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2686084142394822</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2684711046086321</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2677165354330708</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3235625704622322</v>
-      </c>
-      <c r="L24" s="2"/>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:L39" si="32">B25/MIN(B$18:B$27)</f>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1090909090909091</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1547619047619047</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1610169491525424</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1528662420382165</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.1840909090909091</v>
+      </c>
+      <c r="H39" s="2">
+        <f>H25/MIN(H$18:H$27)</f>
+        <v>1.2131147540983607</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2625538020086082</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2768518518518519</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.3095577746077032</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2872499253508509</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f t="shared" si="3"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="25"/>
         <v>Strict Fibonacci</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0714285714285716</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0363636363636362</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.058139534883721</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.1982758620689653</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.2027027027027026</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3813131313131315</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.6343042071197411</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.7717629846378933</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>2.8822834645669291</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>3.0627583615182261</v>
-      </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f t="shared" si="3"/>
-        <v>Violation</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.290909090909091</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2906976744186047</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3448275862068966</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3243243243243243</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.356060606060606</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3770226537216828</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3840526700804683</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3779527559055118</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4347989477639984</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1">
-        <v>8000000</v>
-      </c>
-      <c r="C30" s="1">
-        <f>B30</f>
-        <v>8000000</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ref="D30:E30" si="5">C30</f>
-        <v>8000000</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="5"/>
-        <v>8000000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="H30" s="1">
-        <f>G30</f>
-        <v>4000000</v>
-      </c>
-      <c r="I30" s="1">
-        <f>H30</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>105966</v>
-      </c>
-      <c r="C31">
-        <v>100160</v>
-      </c>
-      <c r="D31">
-        <v>100860</v>
-      </c>
-      <c r="E31">
-        <v>105695</v>
-      </c>
-      <c r="G31">
-        <v>106511</v>
-      </c>
-      <c r="H31">
-        <v>100005</v>
-      </c>
-      <c r="I31">
-        <v>111050</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>104736</v>
-      </c>
-      <c r="C32">
-        <v>100155</v>
-      </c>
-      <c r="D32">
-        <v>100801</v>
-      </c>
-      <c r="E32">
-        <v>104532</v>
-      </c>
-      <c r="G32">
-        <v>105099</v>
-      </c>
-      <c r="H32">
-        <v>100005</v>
-      </c>
-      <c r="I32">
-        <v>108010</v>
+      <c r="B40" s="2">
+        <f t="shared" ref="B40:L40" si="33">B26/MIN(B$18:B$27)</f>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.0545454545454547</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.152542372881356</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.121019108280255</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.3681818181818182</v>
+      </c>
+      <c r="H40" s="2">
+        <f>H26/MIN(H$18:H$27)</f>
+        <v>2.5177595628415301</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.7166427546628409</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.9199074074074076</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.9893009985734667</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="33"/>
+        <v>2.9271424305762914</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
+      <c r="A41" t="str">
+        <f t="shared" si="25"/>
+        <v>Violation</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:L41" si="34">B27/MIN(B$18:B$27)</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.290909090909091</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3214285714285714</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3389830508474576</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3057324840764331</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3409090909090908</v>
+      </c>
+      <c r="H41" s="2">
+        <f>H27/MIN(H$18:H$27)</f>
+        <v>1.3620218579234973</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3601147776183644</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3800925925925926</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.4054921540656204</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="34"/>
+        <v>1.3771275007464916</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C43" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D43" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E43" s="1">
-        <v>400000</v>
-      </c>
-      <c r="F43" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="I43" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="J43" s="1">
-        <v>6000000</v>
-      </c>
-      <c r="K43" s="1">
-        <v>8000000</v>
-      </c>
-      <c r="L43" s="1">
-        <v>8000000</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>24</v>
-      </c>
-      <c r="D44">
-        <v>29</v>
-      </c>
-      <c r="E44">
-        <v>37</v>
-      </c>
-      <c r="F44">
-        <v>42</v>
-      </c>
-      <c r="G44">
-        <v>59</v>
-      </c>
-      <c r="H44">
-        <v>79</v>
-      </c>
-      <c r="I44">
-        <v>133</v>
-      </c>
-      <c r="J44">
-        <v>164</v>
-      </c>
-      <c r="K44">
-        <v>245</v>
-      </c>
-      <c r="L44">
-        <v>143</v>
-      </c>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>19</v>
-      </c>
-      <c r="C45">
-        <v>27</v>
-      </c>
-      <c r="D45">
-        <v>36</v>
-      </c>
-      <c r="E45">
-        <v>46</v>
-      </c>
-      <c r="F45">
-        <v>56</v>
-      </c>
-      <c r="G45">
-        <v>111</v>
-      </c>
-      <c r="H45">
-        <v>224</v>
-      </c>
-      <c r="I45">
-        <v>483</v>
-      </c>
-      <c r="J45">
-        <v>740</v>
-      </c>
-      <c r="K45">
-        <v>1037</v>
-      </c>
-      <c r="L45">
-        <v>937</v>
-      </c>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <v>26</v>
-      </c>
-      <c r="D46">
-        <v>34</v>
-      </c>
-      <c r="E46">
-        <v>42</v>
-      </c>
-      <c r="F46">
-        <v>48</v>
-      </c>
-      <c r="G46">
-        <v>80</v>
-      </c>
-      <c r="H46">
-        <v>135</v>
-      </c>
-      <c r="I46">
-        <v>279</v>
-      </c>
-      <c r="J46">
-        <v>425</v>
-      </c>
-      <c r="K46">
-        <v>616</v>
-      </c>
-      <c r="L46">
-        <v>509</v>
-      </c>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>24</v>
-      </c>
-      <c r="D47">
-        <v>30</v>
-      </c>
-      <c r="E47">
-        <v>39</v>
-      </c>
-      <c r="F47">
-        <v>45</v>
-      </c>
-      <c r="G47">
-        <v>73</v>
-      </c>
-      <c r="H47">
-        <v>125</v>
-      </c>
-      <c r="I47">
-        <v>255</v>
-      </c>
-      <c r="J47">
-        <v>384</v>
-      </c>
-      <c r="K47">
-        <v>593</v>
-      </c>
-      <c r="L47">
-        <v>462</v>
-      </c>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>28</v>
-      </c>
-      <c r="C48">
-        <v>37</v>
-      </c>
-      <c r="D48">
-        <v>51</v>
-      </c>
-      <c r="E48">
-        <v>73</v>
-      </c>
-      <c r="F48">
-        <v>92</v>
-      </c>
-      <c r="G48">
-        <v>197</v>
-      </c>
-      <c r="H48">
-        <v>407</v>
-      </c>
-      <c r="I48">
-        <v>879</v>
-      </c>
-      <c r="J48">
-        <v>1379</v>
-      </c>
-      <c r="K48">
-        <v>2026</v>
-      </c>
-      <c r="L48">
-        <v>1814</v>
-      </c>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
-      <c r="E49">
-        <v>52</v>
-      </c>
-      <c r="F49">
-        <v>62</v>
-      </c>
-      <c r="G49">
-        <v>120</v>
-      </c>
-      <c r="H49">
-        <v>229</v>
-      </c>
-      <c r="I49">
-        <v>553</v>
-      </c>
-      <c r="J49">
-        <v>872</v>
-      </c>
-      <c r="K49">
-        <v>1396</v>
-      </c>
-      <c r="L49">
-        <v>1028</v>
-      </c>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>25</v>
-      </c>
-      <c r="D50">
-        <v>35</v>
-      </c>
-      <c r="E50">
-        <v>47</v>
-      </c>
-      <c r="F50">
-        <v>58</v>
-      </c>
-      <c r="G50">
-        <v>123</v>
-      </c>
-      <c r="H50">
-        <v>251</v>
-      </c>
-      <c r="I50">
-        <v>531</v>
-      </c>
-      <c r="J50">
-        <v>805</v>
-      </c>
-      <c r="K50">
-        <v>1128</v>
-      </c>
-      <c r="L50">
-        <v>1045</v>
-      </c>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>25</v>
-      </c>
-      <c r="D51">
-        <v>33</v>
-      </c>
-      <c r="E51">
-        <v>42</v>
-      </c>
-      <c r="F51">
-        <v>48</v>
-      </c>
-      <c r="G51">
-        <v>85</v>
-      </c>
-      <c r="H51">
-        <v>150</v>
-      </c>
-      <c r="I51">
-        <v>310</v>
-      </c>
-      <c r="J51">
-        <v>456</v>
-      </c>
-      <c r="K51">
-        <v>686</v>
-      </c>
-      <c r="L51">
-        <v>555</v>
-      </c>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>29</v>
-      </c>
-      <c r="C52">
-        <v>40</v>
-      </c>
-      <c r="D52">
-        <v>51</v>
-      </c>
-      <c r="E52">
-        <v>64</v>
-      </c>
-      <c r="F52">
-        <v>73</v>
-      </c>
-      <c r="G52">
-        <v>111</v>
-      </c>
-      <c r="H52">
-        <v>184</v>
-      </c>
-      <c r="I52">
-        <v>240</v>
-      </c>
-      <c r="J52">
-        <v>311</v>
-      </c>
-      <c r="K52">
-        <v>497</v>
-      </c>
-      <c r="L52">
-        <v>264</v>
-      </c>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53">
-        <v>19</v>
-      </c>
-      <c r="C53">
-        <v>27</v>
-      </c>
-      <c r="D53">
-        <v>39</v>
-      </c>
-      <c r="E53">
-        <v>52</v>
-      </c>
-      <c r="F53">
-        <v>63</v>
-      </c>
-      <c r="G53">
-        <v>122</v>
-      </c>
-      <c r="H53">
-        <v>238</v>
-      </c>
-      <c r="I53">
-        <v>512</v>
-      </c>
-      <c r="J53">
-        <v>786</v>
-      </c>
-      <c r="K53">
-        <v>1121</v>
-      </c>
-      <c r="L53">
-        <v>1010</v>
-      </c>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <f>B43</f>
-        <v>100000</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" ref="C57:H57" si="6">C43</f>
-        <v>200000</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="6"/>
-        <v>300000</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="6"/>
-        <v>400000</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="6"/>
-        <v>500000</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="6"/>
-        <v>1000000</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="6"/>
-        <v>2000000</v>
-      </c>
-      <c r="I57" s="1">
-        <f>I43</f>
-        <v>4000000</v>
-      </c>
-      <c r="J57" s="1">
-        <f>J43</f>
-        <v>6000000</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" ref="K57:L57" si="7">K43</f>
-        <v>8000000</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="7"/>
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <f>A44</f>
-        <v>Binomial</v>
-      </c>
-      <c r="B58" s="2">
-        <f>B44/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C58" s="2">
-        <f t="shared" ref="C58:L58" si="8">C44/MIN(C$44:C$53)</f>
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
-        <f t="shared" ref="A59:A67" si="9">A45</f>
-        <v>Fibonacci</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" ref="B59:L59" si="10">B45/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.125</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2413793103448276</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2432432432432432</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.8813559322033899</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8354430379746836</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="10"/>
-        <v>3.6315789473684212</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="10"/>
-        <v>4.5121951219512191</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="10"/>
-        <v>4.2326530612244895</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="10"/>
-        <v>6.5524475524475525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
-        <f t="shared" si="9"/>
-        <v>Hollow</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" ref="B60:L60" si="11">B46/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1724137931034482</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1351351351351351</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3559322033898304</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="11"/>
-        <v>1.7088607594936709</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="11"/>
-        <v>2.0977443609022557</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="11"/>
-        <v>2.5914634146341462</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="11"/>
-        <v>2.5142857142857142</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="11"/>
-        <v>3.5594405594405596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <f t="shared" si="9"/>
-        <v>Pairing</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" ref="B61:L61" si="12">B47/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0344827586206897</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0540540540540539</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0714285714285714</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2372881355932204</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.5822784810126582</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="12"/>
-        <v>1.9172932330827068</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="12"/>
-        <v>2.3414634146341462</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="12"/>
-        <v>2.4204081632653063</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="12"/>
-        <v>3.2307692307692308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f t="shared" si="9"/>
-        <v>Quake</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" ref="B62:L62" si="13">B48/MIN(B$44:B$53)</f>
-        <v>1.4736842105263157</v>
-      </c>
-      <c r="C62" s="2">
-        <f t="shared" si="13"/>
-        <v>1.5416666666666667</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="13"/>
-        <v>1.7586206896551724</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="13"/>
-        <v>1.972972972972973</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="13"/>
-        <v>2.1904761904761907</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="13"/>
-        <v>3.3389830508474576</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="13"/>
-        <v>5.1518987341772151</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="13"/>
-        <v>6.6090225563909772</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" si="13"/>
-        <v>8.4085365853658534</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="13"/>
-        <v>8.2693877551020414</v>
-      </c>
-      <c r="L62" s="2">
-        <f t="shared" si="13"/>
-        <v>12.685314685314685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
-        <f t="shared" si="9"/>
-        <v>Rank-pairing</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" ref="B63:L63" si="14">B49/MIN(B$44:B$53)</f>
-        <v>1.0526315789473684</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" si="14"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="14"/>
-        <v>1.3793103448275863</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="14"/>
-        <v>1.4054054054054055</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="14"/>
-        <v>1.4761904761904763</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0338983050847457</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="14"/>
-        <v>2.8987341772151898</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" si="14"/>
-        <v>4.1578947368421053</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" si="14"/>
-        <v>5.3170731707317076</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="14"/>
-        <v>5.6979591836734693</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="14"/>
-        <v>7.1888111888111892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
-        <f t="shared" si="9"/>
-        <v>Smooth forest</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" ref="B64:L64" si="15">B50/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="15"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="15"/>
-        <v>1.2068965517241379</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" si="15"/>
-        <v>1.2702702702702702</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="15"/>
-        <v>1.3809523809523809</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="15"/>
-        <v>2.0847457627118646</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="15"/>
-        <v>3.1772151898734178</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" si="15"/>
-        <v>3.992481203007519</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" si="15"/>
-        <v>4.9085365853658534</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="15"/>
-        <v>4.6040816326530614</v>
-      </c>
-      <c r="L64" s="2">
-        <f t="shared" si="15"/>
-        <v>7.3076923076923075</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
-        <f t="shared" si="9"/>
-        <v>Smooth one-tree</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" ref="B65:L65" si="16">B51/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.1379310344827587</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.1351351351351351</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.4406779661016949</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="16"/>
-        <v>1.8987341772151898</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" si="16"/>
-        <v>2.3308270676691731</v>
-      </c>
-      <c r="J65" s="2">
-        <f t="shared" si="16"/>
-        <v>2.7804878048780486</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="16"/>
-        <v>2.8</v>
-      </c>
-      <c r="L65" s="2">
-        <f t="shared" si="16"/>
-        <v>3.8811188811188813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <f t="shared" si="9"/>
-        <v>Strict Fibonacci</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" ref="B66:L66" si="17">B52/MIN(B$44:B$53)</f>
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7586206896551724</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7297297297297298</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7380952380952381</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.8813559322033899</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="17"/>
-        <v>2.3291139240506329</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.8045112781954886</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.8963414634146341</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="17"/>
-        <v>2.0285714285714285</v>
-      </c>
-      <c r="L66" s="2">
-        <f t="shared" si="17"/>
-        <v>1.8461538461538463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
-        <f t="shared" si="9"/>
-        <v>Violation</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" ref="B67:L67" si="18">B53/MIN(B$44:B$53)</f>
-        <v>1</v>
-      </c>
-      <c r="C67" s="2">
-        <f t="shared" si="18"/>
-        <v>1.125</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="18"/>
-        <v>1.3448275862068966</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="18"/>
-        <v>1.4054054054054055</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="G67" s="2">
-        <f t="shared" si="18"/>
-        <v>2.0677966101694913</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="18"/>
-        <v>3.0126582278481013</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="18"/>
-        <v>3.8496240601503757</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" si="18"/>
-        <v>4.7926829268292686</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" si="18"/>
-        <v>4.5755102040816329</v>
-      </c>
-      <c r="L67" s="2">
-        <f t="shared" si="18"/>
-        <v>7.0629370629370634</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="str">
-        <f>A58</f>
-        <v>Binomial</v>
-      </c>
-      <c r="B73">
-        <v>890</v>
-      </c>
-      <c r="C73">
-        <v>799</v>
-      </c>
-      <c r="D73">
-        <f>B73-C73</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f t="shared" ref="A74:A82" si="19">A59</f>
-        <v>Fibonacci</v>
-      </c>
-      <c r="B74">
-        <v>1660</v>
-      </c>
-      <c r="C74">
-        <v>1209</v>
-      </c>
-      <c r="D74">
-        <f t="shared" ref="D74:D82" si="20">B74-C74</f>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <f t="shared" si="19"/>
-        <v>Hollow</v>
-      </c>
-      <c r="B75">
-        <v>1236</v>
-      </c>
-      <c r="C75">
-        <v>950</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="20"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <f t="shared" si="19"/>
-        <v>Pairing</v>
-      </c>
-      <c r="B76">
-        <v>1280</v>
-      </c>
-      <c r="C76">
-        <v>981</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="20"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <f t="shared" si="19"/>
-        <v>Quake</v>
-      </c>
-      <c r="B77">
-        <v>2968</v>
-      </c>
-      <c r="C77">
-        <v>2088</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="20"/>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <f t="shared" si="19"/>
-        <v>Rank-pairing</v>
-      </c>
-      <c r="B78">
-        <v>1745</v>
-      </c>
-      <c r="C78">
-        <v>1229</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="20"/>
-        <v>516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f t="shared" si="19"/>
-        <v>Smooth forest</v>
-      </c>
-      <c r="B79">
-        <v>1476</v>
-      </c>
-      <c r="C79">
-        <v>1055</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="20"/>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f t="shared" si="19"/>
-        <v>Smooth one-tree</v>
-      </c>
-      <c r="B80">
-        <v>1827</v>
-      </c>
-      <c r="C80">
-        <v>1553</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="20"/>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f t="shared" si="19"/>
-        <v>Strict Fibonacci</v>
-      </c>
-      <c r="B81">
-        <v>4780</v>
-      </c>
-      <c r="C81">
-        <v>4532</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="20"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f t="shared" si="19"/>
-        <v>Violation</v>
-      </c>
-      <c r="B82">
-        <v>1730</v>
-      </c>
-      <c r="C82">
-        <v>1266</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="20"/>
-        <v>464</v>
-      </c>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Edmonds.xlsx
+++ b/Data/Edmonds.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>Times are in milliseconds</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Pop's &amp; SCC's</t>
   </si>
+  <si>
+    <t>Just pop phase</t>
+  </si>
 </sst>
 </file>
 
@@ -110,11 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,11 +1410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133159952"/>
-        <c:axId val="-2085274832"/>
+        <c:axId val="2117360704"/>
+        <c:axId val="2117353008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133159952"/>
+        <c:axId val="2117360704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -1466,12 +1472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085274832"/>
+        <c:crossAx val="2117353008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085274832"/>
+        <c:axId val="2117353008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000.0"/>
@@ -1492,6 +1498,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1529,7 +1536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133159952"/>
+        <c:crossAx val="2117360704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2642,11 +2649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2051809584"/>
-        <c:axId val="-2069531232"/>
+        <c:axId val="-2090939840"/>
+        <c:axId val="-2096009136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2051809584"/>
+        <c:axId val="-2090939840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -2704,12 +2711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069531232"/>
+        <c:crossAx val="-2096009136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2069531232"/>
+        <c:axId val="-2096009136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500.0"/>
@@ -2767,7 +2774,1488 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051809584"/>
+        <c:crossAx val="-2090939840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binomial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$K$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>571.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1160.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hollow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>754.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$51:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>612.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>728.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quake</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1035.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1721.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2138.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rank-pairing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>753.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1318.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1643.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$K$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1222.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Smooth one-tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>818.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strict Fibonacci</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>731.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Violation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$K$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1021.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1255.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2121402192"/>
+        <c:axId val="2132877616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2121402192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0E6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132877616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2132877616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121402192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2889,6 +4377,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4080,6 +5608,582 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4114,16 +6218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4137,6 +6241,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4410,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L12" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4419,6 +6553,8 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
@@ -5896,6 +8032,11 @@
         <f>AP4</f>
         <v>3349</v>
       </c>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5945,6 +8086,8 @@
         <f t="shared" ref="L19:L27" si="21">AP5</f>
         <v>4606</v>
       </c>
+      <c r="AN19" s="4"/>
+      <c r="AR19" s="4"/>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5994,6 +8137,8 @@
         <f t="shared" si="21"/>
         <v>3645</v>
       </c>
+      <c r="AN20" s="4"/>
+      <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6043,9 +8188,10 @@
         <f t="shared" si="21"/>
         <v>3716</v>
       </c>
+      <c r="AN21" s="4"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
+      <c r="AR21" s="4"/>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -6095,6 +8241,8 @@
         <f t="shared" si="21"/>
         <v>6878</v>
       </c>
+      <c r="AN22" s="4"/>
+      <c r="AR22" s="4"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -6144,6 +8292,8 @@
         <f t="shared" si="21"/>
         <v>5461</v>
       </c>
+      <c r="AN23" s="4"/>
+      <c r="AR23" s="4"/>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -6193,6 +8343,8 @@
         <f t="shared" si="21"/>
         <v>4262</v>
       </c>
+      <c r="AN24" s="4"/>
+      <c r="AR24" s="4"/>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -6242,6 +8394,8 @@
         <f t="shared" si="21"/>
         <v>4311</v>
       </c>
+      <c r="AN25" s="4"/>
+      <c r="AR25" s="4"/>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -6291,6 +8445,8 @@
         <f t="shared" si="21"/>
         <v>9803</v>
       </c>
+      <c r="AN26" s="4"/>
+      <c r="AR26" s="4"/>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -6340,6 +8496,8 @@
         <f t="shared" si="21"/>
         <v>4612</v>
       </c>
+      <c r="AN27" s="4"/>
+      <c r="AR27" s="4"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
@@ -6347,7 +8505,7 @@
         <v>100000</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:K31" si="22">C17</f>
+        <f t="shared" ref="C31:H31" si="22">C17</f>
         <v>200000</v>
       </c>
       <c r="D31" s="1">
@@ -6417,7 +8575,7 @@
         <v>1.0795454545454546</v>
       </c>
       <c r="H32" s="2">
-        <f>H18/MIN(H$18:H$27)</f>
+        <f t="shared" ref="H32:H41" si="25">H18/MIN(H$18:H$27)</f>
         <v>1.0191256830601092</v>
       </c>
       <c r="I32" s="2">
@@ -6439,451 +8597,451 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" ref="A33:A41" si="25">A19</f>
+        <f t="shared" ref="A33:A41" si="26">A19</f>
         <v>Fibonacci</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:L33" si="26">B19/MIN(B$18:B$27)</f>
+        <f t="shared" ref="B33:L33" si="27">B19/MIN(B$18:B$27)</f>
         <v>1.1851851851851851</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3090909090909091</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3452380952380953</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.347457627118644</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3121019108280254</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3045454545454545</v>
       </c>
       <c r="H33" s="2">
-        <f>H19/MIN(H$18:H$27)</f>
+        <f t="shared" si="25"/>
         <v>1.3661202185792349</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3945480631276901</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.4194444444444445</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.442225392296719</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3753359211704987</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
+        <f t="shared" si="26"/>
+        <v>Hollow</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:L34" si="28">B20/MIN(B$18:B$27)</f>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1272727272727272</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1071428571428572</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="28"/>
+        <v>1.076271186440678</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0509554140127388</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="28"/>
+        <v>1.0181818181818181</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="25"/>
-        <v>Hollow</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" ref="B34:L34" si="27">B20/MIN(B$18:B$27)</f>
-        <v>1.1851851851851851</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="27"/>
-        <v>1.1272727272727272</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="27"/>
-        <v>1.1071428571428572</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="27"/>
-        <v>1.076271186440678</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="27"/>
-        <v>1.0509554140127388</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="27"/>
-        <v>1.0181818181818181</v>
-      </c>
-      <c r="H34" s="2">
-        <f>H20/MIN(H$18:H$27)</f>
         <v>1.0081967213114753</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0286944045911048</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0069444444444444</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0641940085592012</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0883845924156466</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
+        <f t="shared" si="26"/>
+        <v>Pairing</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:L35" si="29">B21/MIN(B$18:B$27)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="25"/>
-        <v>Pairing</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" ref="B35:L35" si="28">B21/MIN(B$18:B$27)</f>
         <v>1</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <f>H21/MIN(H$18:H$27)</f>
-        <v>1</v>
-      </c>
       <c r="I35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0215208034433285</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.049074074074074</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0556348074179742</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.1095849507315616</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
+        <f t="shared" si="26"/>
+        <v>Quake</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:L36" si="30">B22/MIN(B$18:B$27)</f>
+        <v>1.7037037037037037</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="30"/>
+        <v>1.7636363636363637</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="30"/>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="30"/>
+        <v>1.8389830508474576</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="30"/>
+        <v>1.8280254777070064</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="30"/>
+        <v>1.884090909090909</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="25"/>
-        <v>Quake</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ref="B36:L36" si="29">B22/MIN(B$18:B$27)</f>
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="29"/>
-        <v>1.7636363636363637</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="29"/>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="29"/>
-        <v>1.8389830508474576</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="29"/>
-        <v>1.8280254777070064</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="29"/>
-        <v>1.884090909090909</v>
-      </c>
-      <c r="H36" s="2">
-        <f>H22/MIN(H$18:H$27)</f>
         <v>1.9508196721311475</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.0164992826398853</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.0865740740740741</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.1027104136947217</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.0537473872797851</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
+        <f t="shared" si="26"/>
+        <v>Rank-pairing</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:L37" si="31">B23/MIN(B$18:B$27)</f>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="31"/>
+        <v>1.3454545454545455</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="31"/>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="31"/>
+        <v>1.347457627118644</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="31"/>
+        <v>1.3375796178343948</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="31"/>
+        <v>1.4272727272727272</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="25"/>
-        <v>Rank-pairing</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" ref="B37:L37" si="30">B23/MIN(B$18:B$27)</f>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="30"/>
-        <v>1.3454545454545455</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="30"/>
-        <v>1.3809523809523809</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="30"/>
-        <v>1.347457627118644</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="30"/>
-        <v>1.3375796178343948</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="30"/>
-        <v>1.4272727272727272</v>
-      </c>
-      <c r="H37" s="2">
-        <f>H23/MIN(H$18:H$27)</f>
         <v>1.4494535519125684</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.4913916786226686</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.55</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.5802425106990015</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.6306360107494775</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
+        <f t="shared" si="26"/>
+        <v>Smooth forest</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:L38" si="32">B24/MIN(B$18:B$27)</f>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2261904761904763</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2796610169491525</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2611464968152866</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="32"/>
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="25"/>
-        <v>Smooth forest</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" ref="B38:L38" si="31">B24/MIN(B$18:B$27)</f>
-        <v>1.0740740740740742</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="31"/>
-        <v>1.2</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="31"/>
-        <v>1.2261904761904763</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="31"/>
-        <v>1.2796610169491525</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="31"/>
-        <v>1.2611464968152866</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="31"/>
-        <v>1.2181818181818183</v>
-      </c>
-      <c r="H38" s="2">
-        <f>H24/MIN(H$18:H$27)</f>
         <v>1.28551912568306</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.3249641319942611</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.337962962962963</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.3651925820256776</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2726186921469096</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
+        <f t="shared" si="26"/>
+        <v>Smooth one-tree</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:L39" si="33">B25/MIN(B$18:B$27)</f>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="33"/>
+        <v>1.1090909090909091</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="33"/>
+        <v>1.1547619047619047</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="33"/>
+        <v>1.1610169491525424</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="33"/>
+        <v>1.1528662420382165</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="33"/>
+        <v>1.1840909090909091</v>
+      </c>
+      <c r="H39" s="2">
         <f t="shared" si="25"/>
-        <v>Smooth one-tree</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ref="B39:L39" si="32">B25/MIN(B$18:B$27)</f>
-        <v>1.0740740740740742</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1090909090909091</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1547619047619047</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1610169491525424</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1528662420382165</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="32"/>
-        <v>1.1840909090909091</v>
-      </c>
-      <c r="H39" s="2">
-        <f>H25/MIN(H$18:H$27)</f>
         <v>1.2131147540983607</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2625538020086082</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2768518518518519</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.3095577746077032</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.2872499253508509</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
+        <f t="shared" si="26"/>
+        <v>Strict Fibonacci</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ref="B40:L40" si="34">B26/MIN(B$18:B$27)</f>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.0545454545454547</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.152542372881356</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.121019108280255</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.3681818181818182</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="25"/>
-        <v>Strict Fibonacci</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ref="B40:L40" si="33">B26/MIN(B$18:B$27)</f>
-        <v>2.1111111111111112</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="33"/>
-        <v>2.0545454545454547</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="33"/>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="33"/>
-        <v>2.152542372881356</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="33"/>
-        <v>2.121019108280255</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="33"/>
-        <v>2.3681818181818182</v>
-      </c>
-      <c r="H40" s="2">
-        <f>H26/MIN(H$18:H$27)</f>
         <v>2.5177595628415301</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.7166427546628409</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.9199074074074076</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.9893009985734667</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.9271424305762914</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
+        <f t="shared" si="26"/>
+        <v>Violation</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:L41" si="35">B27/MIN(B$18:B$27)</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="35"/>
+        <v>1.290909090909091</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="35"/>
+        <v>1.3214285714285714</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="35"/>
+        <v>1.3389830508474576</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="35"/>
+        <v>1.3057324840764331</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="35"/>
+        <v>1.3409090909090908</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="25"/>
-        <v>Violation</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" ref="B41:L41" si="34">B27/MIN(B$18:B$27)</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" si="34"/>
-        <v>1.290909090909091</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="34"/>
-        <v>1.3214285714285714</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="34"/>
-        <v>1.3389830508474576</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="34"/>
-        <v>1.3057324840764331</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="34"/>
-        <v>1.3409090909090908</v>
-      </c>
-      <c r="H41" s="2">
-        <f>H27/MIN(H$18:H$27)</f>
         <v>1.3620218579234973</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3601147776183644</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3800925925925926</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.4054921540656204</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3771275007464916</v>
       </c>
     </row>
@@ -6900,20 +9058,558 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <f>B31</f>
+        <v>100000</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:L47" si="36">C31</f>
+        <v>200000</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="36"/>
+        <v>300000</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="36"/>
+        <v>400000</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="36"/>
+        <v>500000</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="36"/>
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="36"/>
+        <v>2000000</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="36"/>
+        <v>4000000</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="36"/>
+        <v>6000000</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="36"/>
+        <v>8000000</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="36"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>A32</f>
+        <v>Binomial</v>
+      </c>
+      <c r="B48">
+        <f>D4</f>
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <f>H4</f>
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <f>L4</f>
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <f>P4</f>
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <f>T4</f>
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <f>X4</f>
+        <v>217</v>
+      </c>
+      <c r="H48">
+        <f>AB4</f>
+        <v>195</v>
+      </c>
+      <c r="I48">
+        <f>AF4</f>
+        <v>232</v>
+      </c>
+      <c r="J48">
+        <f>AJ4</f>
+        <v>366</v>
+      </c>
+      <c r="K48">
+        <f>AN4</f>
+        <v>351</v>
+      </c>
+      <c r="L48">
+        <f>AR4</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" ref="A49:A59" si="37">A33</f>
+        <v>Fibonacci</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B57" si="38">D5</f>
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C57" si="39">H5</f>
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D57" si="40">L5</f>
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E57" si="41">P5</f>
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:F57" si="42">T5</f>
+        <v>60</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G57" si="43">X5</f>
+        <v>257</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49:H57" si="44">AB5</f>
+        <v>333</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:I57" si="45">AF5</f>
+        <v>571</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J57" si="46">AJ5</f>
+        <v>951</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:K57" si="47">AN5</f>
+        <v>1160</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49:L57" si="48">AR5</f>
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="37"/>
+        <v>Hollow</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="39"/>
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="41"/>
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="42"/>
+        <v>53</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="43"/>
+        <v>209</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="44"/>
+        <v>233</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="45"/>
+        <v>370</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="46"/>
+        <v>605</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="47"/>
+        <v>754</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="48"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="37"/>
+        <v>Pairing</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="39"/>
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="40"/>
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="41"/>
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="43"/>
+        <v>203</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="44"/>
+        <v>222</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="45"/>
+        <v>348</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="46"/>
+        <v>612</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="47"/>
+        <v>728</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="48"/>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="37"/>
+        <v>Quake</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="39"/>
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="40"/>
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="41"/>
+        <v>76</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="42"/>
+        <v>101</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="43"/>
+        <v>425</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="44"/>
+        <v>575</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="45"/>
+        <v>1035</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="46"/>
+        <v>1721</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="47"/>
+        <v>2138</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="48"/>
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="37"/>
+        <v>Rank-pairing</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="39"/>
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="40"/>
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="41"/>
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="42"/>
+        <v>70</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="43"/>
+        <v>316</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="44"/>
+        <v>427</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="45"/>
+        <v>753</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="46"/>
+        <v>1318</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="47"/>
+        <v>1643</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="48"/>
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="37"/>
+        <v>Smooth forest</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="39"/>
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="40"/>
+        <v>35</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="41"/>
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="42"/>
+        <v>65</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="43"/>
+        <v>258</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="44"/>
+        <v>342</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="45"/>
+        <v>605</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="46"/>
+        <v>990</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="47"/>
+        <v>1222</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="48"/>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="37"/>
+        <v>Smooth one-tree</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="39"/>
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="41"/>
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="42"/>
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="43"/>
+        <v>232</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="44"/>
+        <v>259</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="45"/>
+        <v>413</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="46"/>
+        <v>689</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="47"/>
+        <v>818</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="48"/>
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="37"/>
+        <v>Strict Fibonacci</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="39"/>
+        <v>42</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="40"/>
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="41"/>
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="42"/>
+        <v>82</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="43"/>
+        <v>425</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="44"/>
+        <v>375</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="45"/>
+        <v>443</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="46"/>
+        <v>768</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="47"/>
+        <v>731</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="48"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="37"/>
+        <v>Violation</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="38"/>
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="39"/>
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="40"/>
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="41"/>
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="42"/>
+        <v>69</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="43"/>
+        <v>299</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="44"/>
+        <v>377</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="45"/>
+        <v>629</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="46"/>
+        <v>1021</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="47"/>
+        <v>1255</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="48"/>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6926,7 +9622,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6939,7 +9635,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6952,7 +9648,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6965,7 +9661,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -6978,7 +9674,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6991,7 +9687,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>

--- a/Data/Edmonds.xlsx
+++ b/Data/Edmonds.xlsx
@@ -1410,11 +1410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117360704"/>
-        <c:axId val="2117353008"/>
+        <c:axId val="2137460464"/>
+        <c:axId val="2138323488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117360704"/>
+        <c:axId val="2137460464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -1472,12 +1472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117353008"/>
+        <c:crossAx val="2138323488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117353008"/>
+        <c:axId val="2138323488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000.0"/>
@@ -1536,7 +1536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117360704"/>
+        <c:crossAx val="2137460464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2649,11 +2649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2090939840"/>
-        <c:axId val="-2096009136"/>
+        <c:axId val="2136756240"/>
+        <c:axId val="2136759600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2090939840"/>
+        <c:axId val="2136756240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -2711,12 +2711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096009136"/>
+        <c:crossAx val="2136759600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2096009136"/>
+        <c:axId val="2136759600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500.0"/>
@@ -2774,7 +2774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090939840"/>
+        <c:crossAx val="2136756240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4130,11 +4130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121402192"/>
-        <c:axId val="2132877616"/>
+        <c:axId val="2137611008"/>
+        <c:axId val="2137614240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121402192"/>
+        <c:axId val="2137611008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -4192,12 +4192,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132877616"/>
+        <c:crossAx val="2137614240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132877616"/>
+        <c:axId val="2137614240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121402192"/>
+        <c:crossAx val="2137611008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6544,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="O48" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" ref="A49:A59" si="37">A33</f>
+        <f t="shared" ref="A49:A57" si="37">A33</f>
         <v>Fibonacci</v>
       </c>
       <c r="B49">

--- a/Data/Edmonds.xlsx
+++ b/Data/Edmonds.xlsx
@@ -1410,11 +1410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137460464"/>
-        <c:axId val="2138323488"/>
+        <c:axId val="-2137611664"/>
+        <c:axId val="-2137682912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137460464"/>
+        <c:axId val="-2137611664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -1472,12 +1472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138323488"/>
+        <c:crossAx val="-2137682912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2138323488"/>
+        <c:axId val="-2137682912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9000.0"/>
@@ -1536,7 +1536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137460464"/>
+        <c:crossAx val="-2137611664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2649,11 +2649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136756240"/>
-        <c:axId val="2136759600"/>
+        <c:axId val="-2133710512"/>
+        <c:axId val="-2138523776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136756240"/>
+        <c:axId val="-2133710512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -2711,12 +2711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136759600"/>
+        <c:crossAx val="-2138523776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136759600"/>
+        <c:axId val="-2138523776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500.0"/>
@@ -2774,7 +2774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136756240"/>
+        <c:crossAx val="-2133710512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2870,7 +2870,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4130,11 +4129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137611008"/>
-        <c:axId val="2137614240"/>
+        <c:axId val="-2133621824"/>
+        <c:axId val="-2133643040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137611008"/>
+        <c:axId val="-2133621824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0E6"/>
@@ -4155,6 +4154,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4192,12 +4192,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137614240"/>
+        <c:crossAx val="-2133643040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137614240"/>
+        <c:axId val="-2133643040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137611008"/>
+        <c:crossAx val="-2133621824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4269,7 +4269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6248,16 +6247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626782</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6542,10 +6541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AR70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O48" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="W54" sqref="W54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9636,108 +9635,550 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="B60" s="2">
+        <f>B47</f>
+        <v>100000</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" ref="C60:L60" si="49">C47</f>
+        <v>200000</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="49"/>
+        <v>300000</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="49"/>
+        <v>400000</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="49"/>
+        <v>500000</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="49"/>
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="49"/>
+        <v>2000000</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="49"/>
+        <v>4000000</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="49"/>
+        <v>6000000</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="49"/>
+        <v>8000000</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="49"/>
+        <v>8000000</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="A61" t="str">
+        <f>A48</f>
+        <v>Binomial</v>
+      </c>
+      <c r="B61" s="2">
+        <f>B48/MIN(B$48:B$57)</f>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" ref="C61:L61" si="50">C48/MIN(C$48:C$57)</f>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="50"/>
+        <v>1.0689655172413792</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="A62" t="str">
+        <f t="shared" ref="A62:A70" si="51">A49</f>
+        <v>Fibonacci</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ref="B62:L70" si="52">B49/MIN(B$48:B$57)</f>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1724137931034482</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.25</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.2765957446808511</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.2660098522167487</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.7076923076923076</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="52"/>
+        <v>2.4612068965517242</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="52"/>
+        <v>2.598360655737705</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="52"/>
+        <v>3.3048433048433048</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="52"/>
+        <v>1.9539842873176207</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="A63" t="str">
+        <f t="shared" si="51"/>
+        <v>Hollow</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1379310344827587</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1276595744680851</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0295566502463054</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1948717948717948</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.5948275862068966</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6530054644808743</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="52"/>
+        <v>2.1481481481481484</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="52"/>
+        <v>1.5937149270482605</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="A64" t="str">
+        <f t="shared" si="51"/>
+        <v>Pairing</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0344827586206897</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0638297872340425</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1384615384615384</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.5</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6721311475409837</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="52"/>
+        <v>2.074074074074074</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6464646464646464</v>
+      </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="shared" si="51"/>
+        <v>Quake</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="52"/>
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6956521739130435</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="52"/>
+        <v>1.9655172413793103</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="52"/>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="52"/>
+        <v>2.1489361702127661</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="52"/>
+        <v>2.0935960591133007</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="52"/>
+        <v>2.9487179487179489</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="52"/>
+        <v>4.4612068965517242</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="52"/>
+        <v>4.7021857923497263</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="52"/>
+        <v>6.0911680911680914</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="52"/>
+        <v>4.0471380471380467</v>
+      </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="shared" si="51"/>
+        <v>Rank-pairing</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.2173913043478262</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4137931034482758</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4893617021276595</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="52"/>
+        <v>1.5566502463054188</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="52"/>
+        <v>2.18974358974359</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="52"/>
+        <v>3.2456896551724137</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="52"/>
+        <v>3.6010928961748632</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="52"/>
+        <v>4.6809116809116809</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="52"/>
+        <v>3.0022446689113358</v>
+      </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="shared" si="51"/>
+        <v>Smooth forest</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.3829787234042554</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.270935960591133</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.7538461538461538</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="52"/>
+        <v>2.6077586206896552</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="52"/>
+        <v>2.7049180327868854</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="52"/>
+        <v>3.4814814814814814</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="52"/>
+        <v>1.8843995510662177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f t="shared" si="51"/>
+        <v>Smooth one-tree</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1379310344827587</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1944444444444444</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1702127659574468</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.3282051282051281</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.7801724137931034</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.8825136612021858</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="52"/>
+        <v>2.3304843304843303</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6734006734006734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f t="shared" si="51"/>
+        <v>Strict Fibonacci</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.826086956521739</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.896551724137931</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.8611111111111112</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.7446808510638299</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="52"/>
+        <v>2.0935960591133007</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="52"/>
+        <v>1.9094827586206897</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="52"/>
+        <v>2.098360655737705</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="52"/>
+        <v>2.0826210826210825</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="52"/>
+        <v>2.457912457912458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="shared" si="51"/>
+        <v>Violation</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.3793103448275863</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.5</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4680851063829787</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.4729064039408868</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="52"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="52"/>
+        <v>2.7112068965517242</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="52"/>
+        <v>2.7896174863387979</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="52"/>
+        <v>3.5754985754985755</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="52"/>
+        <v>2.1952861952861955</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
